--- a/Code/Results/Cases/Case_5_16/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_16/res_bus/vm_pu.xlsx
@@ -421,37 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9934419657483455</v>
+        <v>1.01727778847215</v>
       </c>
       <c r="D2">
-        <v>1.012415679544878</v>
+        <v>1.033223464995893</v>
       </c>
       <c r="E2">
-        <v>1.000026984348688</v>
+        <v>1.029254870351796</v>
       </c>
       <c r="F2">
-        <v>1.001545598130373</v>
+        <v>1.03661497704164</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041880314826975</v>
+        <v>1.054616387679369</v>
       </c>
       <c r="J2">
-        <v>1.01582061156278</v>
+        <v>1.038953724949512</v>
       </c>
       <c r="K2">
-        <v>1.023704712214065</v>
+        <v>1.044238563526931</v>
       </c>
       <c r="L2">
-        <v>1.011485943249122</v>
+        <v>1.040321145414711</v>
       </c>
       <c r="M2">
-        <v>1.012983442232651</v>
-      </c>
-      <c r="N2">
-        <v>1.005704707400593</v>
+        <v>1.047586728634004</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.000881481551881</v>
+        <v>1.024006349915602</v>
       </c>
       <c r="D3">
-        <v>1.017976380497942</v>
+        <v>1.03844089305608</v>
       </c>
       <c r="E3">
-        <v>1.006245710230681</v>
+        <v>1.035063795588946</v>
       </c>
       <c r="F3">
-        <v>1.009392791665819</v>
+        <v>1.04285422791848</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044655101698142</v>
+        <v>1.057120302783734</v>
       </c>
       <c r="J3">
-        <v>1.021348145301532</v>
+        <v>1.043863303899945</v>
       </c>
       <c r="K3">
-        <v>1.028384303043121</v>
+        <v>1.048604452174472</v>
       </c>
       <c r="L3">
-        <v>1.016799294937967</v>
+        <v>1.045266855989448</v>
       </c>
       <c r="M3">
-        <v>1.019906884234852</v>
-      </c>
-      <c r="N3">
-        <v>1.005704707400593</v>
+        <v>1.0529666414507</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.00554545628164</v>
+        <v>1.028241007603252</v>
       </c>
       <c r="D4">
-        <v>1.021464506222752</v>
+        <v>1.041726002283253</v>
       </c>
       <c r="E4">
-        <v>1.010149752208311</v>
+        <v>1.038725141338622</v>
       </c>
       <c r="F4">
-        <v>1.014316515814655</v>
+        <v>1.046787778042282</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046379983741832</v>
+        <v>1.058682705679196</v>
       </c>
       <c r="J4">
-        <v>1.024808364647998</v>
+        <v>1.046948890808348</v>
       </c>
       <c r="K4">
-        <v>1.031310595946039</v>
+        <v>1.051345620939393</v>
       </c>
       <c r="L4">
-        <v>1.020127202852111</v>
+        <v>1.048377616992077</v>
       </c>
       <c r="M4">
-        <v>1.024245170039937</v>
-      </c>
-      <c r="N4">
-        <v>1.005704707400593</v>
+        <v>1.056352497755268</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.007472364102196</v>
+        <v>1.029994167738383</v>
       </c>
       <c r="D5">
-        <v>1.022905985328161</v>
+        <v>1.043086317779282</v>
       </c>
       <c r="E5">
-        <v>1.011763896661907</v>
+        <v>1.04024218809288</v>
       </c>
       <c r="F5">
-        <v>1.016351746665793</v>
+        <v>1.048417851573013</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047089029139354</v>
+        <v>1.059326261405705</v>
       </c>
       <c r="J5">
-        <v>1.026236659172977</v>
+        <v>1.048225249431524</v>
       </c>
       <c r="K5">
-        <v>1.03251772489008</v>
+        <v>1.052478840075016</v>
       </c>
       <c r="L5">
-        <v>1.021501292510838</v>
+        <v>1.049664975283203</v>
       </c>
       <c r="M5">
-        <v>1.026036991282224</v>
-      </c>
-      <c r="N5">
-        <v>1.005704707400593</v>
+        <v>1.057754180782047</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.007793973239864</v>
+        <v>1.030286982350541</v>
       </c>
       <c r="D6">
-        <v>1.023146592935018</v>
+        <v>1.043313532582861</v>
       </c>
       <c r="E6">
-        <v>1.012033372225736</v>
+        <v>1.040495637675831</v>
       </c>
       <c r="F6">
-        <v>1.016691494907636</v>
+        <v>1.048690198701217</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047207159265619</v>
+        <v>1.059433554062029</v>
       </c>
       <c r="J6">
-        <v>1.026474970292861</v>
+        <v>1.048438362928378</v>
       </c>
       <c r="K6">
-        <v>1.03271908825781</v>
+        <v>1.052668013642381</v>
       </c>
       <c r="L6">
-        <v>1.02173058329368</v>
+        <v>1.04987995973832</v>
       </c>
       <c r="M6">
-        <v>1.026336022408995</v>
-      </c>
-      <c r="N6">
-        <v>1.005704707400593</v>
+        <v>1.057988285314508</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.005571334049534</v>
+        <v>1.028264538034631</v>
       </c>
       <c r="D7">
-        <v>1.021483863515305</v>
+        <v>1.041744259101013</v>
       </c>
       <c r="E7">
-        <v>1.010171425029979</v>
+        <v>1.038745497910243</v>
       </c>
       <c r="F7">
-        <v>1.014343844324599</v>
+        <v>1.04680965030501</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046389520270883</v>
+        <v>1.058691356368938</v>
       </c>
       <c r="J7">
-        <v>1.024827551363523</v>
+        <v>1.046966026096567</v>
       </c>
       <c r="K7">
-        <v>1.031326814774876</v>
+        <v>1.051360837236842</v>
       </c>
       <c r="L7">
-        <v>1.020145659809967</v>
+        <v>1.048394897638298</v>
       </c>
       <c r="M7">
-        <v>1.024269235748895</v>
-      </c>
-      <c r="N7">
-        <v>1.005704707400593</v>
+        <v>1.056371311122594</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9959885176962435</v>
+        <v>1.019577314509612</v>
       </c>
       <c r="D8">
-        <v>1.014318613107831</v>
+        <v>1.035006182814726</v>
       </c>
       <c r="E8">
-        <v>1.0021544557388</v>
+        <v>1.031238907448978</v>
       </c>
       <c r="F8">
-        <v>1.004230823059352</v>
+        <v>1.038745792357797</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042833190477509</v>
+        <v>1.055474914520315</v>
       </c>
       <c r="J8">
-        <v>1.01771372793285</v>
+        <v>1.040632470765056</v>
       </c>
       <c r="K8">
-        <v>1.025308060786094</v>
+        <v>1.045731965784679</v>
       </c>
       <c r="L8">
-        <v>1.013305322427293</v>
+        <v>1.042011722170064</v>
       </c>
       <c r="M8">
-        <v>1.015353788528929</v>
-      </c>
-      <c r="N8">
-        <v>1.005704707400593</v>
+        <v>1.049425308862824</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9778512897230676</v>
+        <v>1.00328571530801</v>
       </c>
       <c r="D9">
-        <v>1.00077941255925</v>
+        <v>1.022386387650661</v>
       </c>
       <c r="E9">
-        <v>0.9870299597489587</v>
+        <v>1.01720930057531</v>
       </c>
       <c r="F9">
-        <v>0.9851236221203706</v>
+        <v>1.023682092255535</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035985563235778</v>
+        <v>1.049337015641171</v>
       </c>
       <c r="J9">
-        <v>1.004211172365278</v>
+        <v>1.028722977650632</v>
       </c>
       <c r="K9">
-        <v>1.013859856982825</v>
+        <v>1.035126410272681</v>
       </c>
       <c r="L9">
-        <v>1.000337031300319</v>
+        <v>1.03002920565203</v>
       </c>
       <c r="M9">
-        <v>0.9984627592246863</v>
-      </c>
-      <c r="N9">
-        <v>1.005704707400593</v>
+        <v>1.036402283391338</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9647547550092013</v>
+        <v>0.9916532225538756</v>
       </c>
       <c r="D10">
-        <v>0.9910276706571406</v>
+        <v>1.013393684512689</v>
       </c>
       <c r="E10">
-        <v>0.9761504835890257</v>
+        <v>1.007230355376972</v>
       </c>
       <c r="F10">
-        <v>0.971348870755218</v>
+        <v>1.012972058340416</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.030965998589877</v>
+        <v>1.044886438622068</v>
       </c>
       <c r="J10">
-        <v>0.9944400608535162</v>
+        <v>1.020201962189207</v>
       </c>
       <c r="K10">
-        <v>1.005560835228836</v>
+        <v>1.02752525068264</v>
       </c>
       <c r="L10">
-        <v>0.9909641267753458</v>
+        <v>1.021470279236912</v>
       </c>
       <c r="M10">
-        <v>0.9862554437197731</v>
-      </c>
-      <c r="N10">
-        <v>1.005704707400593</v>
+        <v>1.027110982718858</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9588018265848722</v>
+        <v>0.9864049159600284</v>
       </c>
       <c r="D11">
-        <v>0.9866033795589981</v>
+        <v>1.009342397960454</v>
       </c>
       <c r="E11">
-        <v>0.971217314972176</v>
+        <v>1.002738705649029</v>
       </c>
       <c r="F11">
-        <v>0.9650927240481061</v>
+        <v>1.008152239574221</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.028667726858925</v>
+        <v>1.042863304146991</v>
       </c>
       <c r="J11">
-        <v>0.9899949354401086</v>
+        <v>1.016354410905558</v>
       </c>
       <c r="K11">
-        <v>1.001782437258902</v>
+        <v>1.024090255046352</v>
       </c>
       <c r="L11">
-        <v>0.9867032389415866</v>
+        <v>1.017609158148803</v>
       </c>
       <c r="M11">
-        <v>0.9807043954547816</v>
-      </c>
-      <c r="N11">
-        <v>1.005704707400593</v>
+        <v>1.022922036925203</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9565439087485369</v>
+        <v>0.9844209554700802</v>
       </c>
       <c r="D12">
-        <v>0.9849267472930198</v>
+        <v>1.007811999494072</v>
       </c>
       <c r="E12">
-        <v>0.9693481990273412</v>
+        <v>1.001042512066413</v>
       </c>
       <c r="F12">
-        <v>0.9627205340185192</v>
+        <v>1.006332240275571</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.027793610805867</v>
+        <v>1.042096341030684</v>
       </c>
       <c r="J12">
-        <v>0.9883084834678787</v>
+        <v>1.014899602732609</v>
       </c>
       <c r="K12">
-        <v>1.000348538967524</v>
+        <v>1.022791048858376</v>
       </c>
       <c r="L12">
-        <v>0.98508718140496</v>
+        <v>1.016149766408204</v>
       </c>
       <c r="M12">
-        <v>0.9785985823125096</v>
-      </c>
-      <c r="N12">
-        <v>1.005704707400593</v>
+        <v>1.021339121833836</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9570304316194671</v>
+        <v>0.9848481309134932</v>
       </c>
       <c r="D13">
-        <v>0.9852879472932602</v>
+        <v>1.00814146558803</v>
       </c>
       <c r="E13">
-        <v>0.9697508507958447</v>
+        <v>1.001407646337696</v>
       </c>
       <c r="F13">
-        <v>0.9632316467606802</v>
+        <v>1.006724020562569</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.027982066206927</v>
+        <v>1.042261576071699</v>
       </c>
       <c r="J13">
-        <v>0.9886718877620885</v>
+        <v>1.015212858537576</v>
       </c>
       <c r="K13">
-        <v>1.000657539025091</v>
+        <v>1.023070816886633</v>
       </c>
       <c r="L13">
-        <v>0.9854353938452105</v>
+        <v>1.01646398421268</v>
       </c>
       <c r="M13">
-        <v>0.9790523449543717</v>
-      </c>
-      <c r="N13">
-        <v>1.005704707400593</v>
+        <v>1.021679917759549</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9586161672526935</v>
+        <v>0.9862416421354201</v>
       </c>
       <c r="D14">
-        <v>0.9864654855050193</v>
+        <v>1.009216428284719</v>
       </c>
       <c r="E14">
-        <v>0.9710635831820829</v>
+        <v>1.002599078070693</v>
       </c>
       <c r="F14">
-        <v>0.964897653796534</v>
+        <v>1.008002418151034</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.028595899668685</v>
+        <v>1.042800229087196</v>
       </c>
       <c r="J14">
-        <v>0.989856273480062</v>
+        <v>1.016234691370336</v>
       </c>
       <c r="K14">
-        <v>1.001664548330563</v>
+        <v>1.023983348106279</v>
       </c>
       <c r="L14">
-        <v>0.9865703546396332</v>
+        <v>1.017489050229903</v>
       </c>
       <c r="M14">
-        <v>0.9805312495654684</v>
-      </c>
-      <c r="N14">
-        <v>1.005704707400593</v>
+        <v>1.022791755230719</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9595868572638785</v>
+        <v>0.9870955702621685</v>
       </c>
       <c r="D15">
-        <v>0.9871865040162525</v>
+        <v>1.009875298668789</v>
       </c>
       <c r="E15">
-        <v>0.9718674281476722</v>
+        <v>1.003329406927144</v>
       </c>
       <c r="F15">
-        <v>0.9659175770679358</v>
+        <v>1.008786071270965</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.02897134015404</v>
+        <v>1.043130025939619</v>
       </c>
       <c r="J15">
-        <v>0.9905812283257229</v>
+        <v>1.016860814943116</v>
       </c>
       <c r="K15">
-        <v>1.002280881368084</v>
+        <v>1.024542447132124</v>
       </c>
       <c r="L15">
-        <v>0.9872651229726753</v>
+        <v>1.018117227362045</v>
       </c>
       <c r="M15">
-        <v>0.9814365019120821</v>
-      </c>
-      <c r="N15">
-        <v>1.005704707400593</v>
+        <v>1.023473157934465</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,40 +953,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.965143530671541</v>
+        <v>0.9919968546280729</v>
       </c>
       <c r="D16">
-        <v>0.9913168039141949</v>
+        <v>1.013659079722071</v>
       </c>
       <c r="E16">
-        <v>0.9764729253839667</v>
+        <v>1.007524676970389</v>
       </c>
       <c r="F16">
-        <v>0.9717575517772473</v>
+        <v>1.013287901243582</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.031115759627472</v>
+        <v>1.045018597138957</v>
       </c>
       <c r="J16">
-        <v>0.9947302973391331</v>
+        <v>1.020453824694487</v>
       </c>
       <c r="K16">
-        <v>1.005807481559998</v>
+        <v>1.027750051633133</v>
       </c>
       <c r="L16">
-        <v>0.9912424001070929</v>
+        <v>1.021723104690804</v>
       </c>
       <c r="M16">
-        <v>0.986617927261779</v>
-      </c>
-      <c r="N16">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.027385327183443</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +991,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9685506846073928</v>
+        <v>0.9950128692171589</v>
       </c>
       <c r="D17">
-        <v>0.9938516695565187</v>
+        <v>1.015989116581639</v>
       </c>
       <c r="E17">
-        <v>0.9793001166633486</v>
+        <v>1.010109115108843</v>
       </c>
       <c r="F17">
-        <v>0.9753397197308088</v>
+        <v>1.016061418659527</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032426372087739</v>
+        <v>1.046176835005048</v>
       </c>
       <c r="J17">
-        <v>0.997273465428333</v>
+        <v>1.022664053772643</v>
       </c>
       <c r="K17">
-        <v>1.007968366977165</v>
+        <v>1.029722488716619</v>
       </c>
       <c r="L17">
-        <v>0.9936810926321219</v>
+        <v>1.023942186580501</v>
       </c>
       <c r="M17">
-        <v>0.989794404743454</v>
-      </c>
-      <c r="N17">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.029793574126338</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1029,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9705111322404079</v>
+        <v>0.9967518682183635</v>
       </c>
       <c r="D18">
-        <v>0.9953109699095573</v>
+        <v>1.017333143098545</v>
       </c>
       <c r="E18">
-        <v>0.9809279697334981</v>
+        <v>1.011600261463506</v>
       </c>
       <c r="F18">
-        <v>0.9774013447869008</v>
+        <v>1.017661744430967</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033178917887516</v>
+        <v>1.046843229901513</v>
       </c>
       <c r="J18">
-        <v>0.9987364234184977</v>
+        <v>1.023938150178059</v>
       </c>
       <c r="K18">
-        <v>1.009211135987528</v>
+        <v>1.030859244075503</v>
       </c>
       <c r="L18">
-        <v>0.9950842374775578</v>
+        <v>1.025221719076767</v>
       </c>
       <c r="M18">
-        <v>0.9916219055095521</v>
-      </c>
-      <c r="N18">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.031182421578675</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1067,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9711751561644941</v>
+        <v>0.9973414755784467</v>
       </c>
       <c r="D19">
-        <v>0.995805372480856</v>
+        <v>1.017788924553483</v>
       </c>
       <c r="E19">
-        <v>0.981479523203758</v>
+        <v>1.012105998280743</v>
       </c>
       <c r="F19">
-        <v>0.9780997198731863</v>
+        <v>1.018204525517935</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033433543604327</v>
+        <v>1.047068925477859</v>
       </c>
       <c r="J19">
-        <v>0.9992318780064732</v>
+        <v>1.024370079327588</v>
       </c>
       <c r="K19">
-        <v>1.009631971053858</v>
+        <v>1.031244567742683</v>
       </c>
       <c r="L19">
-        <v>0.9955594830645192</v>
+        <v>1.025655547173429</v>
       </c>
       <c r="M19">
-        <v>0.9922408614728723</v>
-      </c>
-      <c r="N19">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.031653354126425</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1105,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9681879398925567</v>
+        <v>0.9946913867403691</v>
       </c>
       <c r="D20">
-        <v>0.9935817129438483</v>
+        <v>1.015740695025382</v>
       </c>
       <c r="E20">
-        <v>0.9789990011209192</v>
+        <v>1.009833531409318</v>
       </c>
       <c r="F20">
-        <v>0.9749582927140051</v>
+        <v>1.015765664217112</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032286999384301</v>
+        <v>1.046053524418061</v>
       </c>
       <c r="J20">
-        <v>0.9970027420311933</v>
+        <v>1.022428491508452</v>
       </c>
       <c r="K20">
-        <v>1.007738366928788</v>
+        <v>1.029512297212886</v>
       </c>
       <c r="L20">
-        <v>0.9934214607849232</v>
+        <v>1.023705646119925</v>
       </c>
       <c r="M20">
-        <v>0.9894562416234293</v>
-      </c>
-      <c r="N20">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.029536844745904</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1143,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9581505359544555</v>
+        <v>0.9858322640615823</v>
       </c>
       <c r="D21">
-        <v>0.9861196735746238</v>
+        <v>1.00890060099105</v>
       </c>
       <c r="E21">
-        <v>0.9706780588419371</v>
+        <v>1.002249016894251</v>
       </c>
       <c r="F21">
-        <v>0.9644084317872094</v>
+        <v>1.00762680182912</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.028415719923023</v>
+        <v>1.042642045648017</v>
       </c>
       <c r="J21">
-        <v>0.9895085044416633</v>
+        <v>1.015934511967144</v>
       </c>
       <c r="K21">
-        <v>1.001368872546265</v>
+        <v>1.023715288251676</v>
       </c>
       <c r="L21">
-        <v>0.9862370842571603</v>
+        <v>1.017187905866046</v>
       </c>
       <c r="M21">
-        <v>0.9800969966489874</v>
-      </c>
-      <c r="N21">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.022465108536833</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1181,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9515665779433576</v>
+        <v>0.9800609328895751</v>
       </c>
       <c r="D22">
-        <v>0.9812338170203905</v>
+        <v>1.004450899723854</v>
       </c>
       <c r="E22">
-        <v>0.9652319070496007</v>
+        <v>0.9973182665868707</v>
       </c>
       <c r="F22">
-        <v>0.9574926335669386</v>
+        <v>1.002336368408325</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.025862435777791</v>
+        <v>1.040406929838141</v>
       </c>
       <c r="J22">
-        <v>0.9845902325841568</v>
+        <v>1.011701921341379</v>
       </c>
       <c r="K22">
-        <v>0.9971864332195973</v>
+        <v>1.019934696091489</v>
       </c>
       <c r="L22">
-        <v>0.9815250906667293</v>
+        <v>1.012943036995064</v>
       </c>
       <c r="M22">
-        <v>0.9739559699244393</v>
-      </c>
-      <c r="N22">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.017861683036218</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1219,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9550843691297281</v>
+        <v>0.9831405071648197</v>
       </c>
       <c r="D23">
-        <v>0.9838434055827359</v>
+        <v>1.006824602237367</v>
       </c>
       <c r="E23">
-        <v>0.968140580033115</v>
+        <v>0.9999482968645826</v>
       </c>
       <c r="F23">
-        <v>0.9611873322297937</v>
+        <v>1.005158190369222</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.027227914439198</v>
+        <v>1.041600741229343</v>
       </c>
       <c r="J23">
-        <v>0.987218238744898</v>
+        <v>1.013960581429173</v>
       </c>
       <c r="K23">
-        <v>0.9994214571951188</v>
+        <v>1.021952356241812</v>
       </c>
       <c r="L23">
-        <v>0.9840425890397901</v>
+        <v>1.015207942827972</v>
       </c>
       <c r="M23">
-        <v>0.9772372751763397</v>
-      </c>
-      <c r="N23">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.020317690464531</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1257,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.968351931383191</v>
+        <v>0.9948367130268091</v>
       </c>
       <c r="D24">
-        <v>0.9937037539684499</v>
+        <v>1.015852992383233</v>
       </c>
       <c r="E24">
-        <v>0.9791351275412006</v>
+        <v>1.00995810607281</v>
       </c>
       <c r="F24">
-        <v>0.9751307287150031</v>
+        <v>1.015899356580763</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.032350012597041</v>
+        <v>1.04610927147247</v>
       </c>
       <c r="J24">
-        <v>0.9971251331790952</v>
+        <v>1.022534978454015</v>
       </c>
       <c r="K24">
-        <v>1.007842348363149</v>
+        <v>1.029607316020387</v>
       </c>
       <c r="L24">
-        <v>0.9935388366739063</v>
+        <v>1.02381257423076</v>
       </c>
       <c r="M24">
-        <v>0.9896091208183951</v>
-      </c>
-      <c r="N24">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.029652898507479</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9827041062503562</v>
+        <v>1.007624694124977</v>
       </c>
       <c r="D25">
-        <v>1.004398512281841</v>
+        <v>1.025744885442697</v>
       </c>
       <c r="E25">
-        <v>0.9910702501756545</v>
+        <v>1.02093972625597</v>
       </c>
       <c r="F25">
-        <v>0.9902321465157168</v>
+        <v>1.02768667553781</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037830789597147</v>
+        <v>1.050983641998976</v>
       </c>
       <c r="J25">
-        <v>1.007827903013918</v>
+        <v>1.031898153588154</v>
       </c>
       <c r="K25">
-        <v>1.016928928600779</v>
+        <v>1.037956271193144</v>
       </c>
       <c r="L25">
-        <v>1.00380878897077</v>
+        <v>1.033221449337868</v>
       </c>
       <c r="M25">
-        <v>1.002984012297988</v>
-      </c>
-      <c r="N25">
-        <v>1.005704707400593</v>
+        <v>1.039869874151877</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_16/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_16/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.01727778847215</v>
+        <v>1.011817489373926</v>
       </c>
       <c r="D2">
-        <v>1.033223464995893</v>
+        <v>1.032078585082279</v>
       </c>
       <c r="E2">
-        <v>1.029254870351796</v>
+        <v>1.026826708818055</v>
       </c>
       <c r="F2">
-        <v>1.03661497704164</v>
+        <v>1.038084423467972</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.054616387679369</v>
+        <v>1.054242112447355</v>
       </c>
       <c r="J2">
-        <v>1.038953724949512</v>
+        <v>1.033650396389668</v>
       </c>
       <c r="K2">
-        <v>1.044238563526931</v>
+        <v>1.043108396758819</v>
       </c>
       <c r="L2">
-        <v>1.040321145414711</v>
+        <v>1.03792454021589</v>
       </c>
       <c r="M2">
-        <v>1.047586728634004</v>
+        <v>1.049037503862966</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.024006349915602</v>
+        <v>1.016271659368335</v>
       </c>
       <c r="D3">
-        <v>1.03844089305608</v>
+        <v>1.035388553153455</v>
       </c>
       <c r="E3">
-        <v>1.035063795588946</v>
+        <v>1.030451969234584</v>
       </c>
       <c r="F3">
-        <v>1.04285422791848</v>
+        <v>1.041860633772852</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.057120302783734</v>
+        <v>1.055517063820419</v>
       </c>
       <c r="J3">
-        <v>1.043863303899945</v>
+        <v>1.036328361381446</v>
       </c>
       <c r="K3">
-        <v>1.048604452174472</v>
+        <v>1.045587801066666</v>
       </c>
       <c r="L3">
-        <v>1.045266855989448</v>
+        <v>1.040709491490303</v>
       </c>
       <c r="M3">
-        <v>1.0529666414507</v>
+        <v>1.051984515248962</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.028241007603252</v>
+        <v>1.019096672802832</v>
       </c>
       <c r="D4">
-        <v>1.041726002283253</v>
+        <v>1.03748875204861</v>
       </c>
       <c r="E4">
-        <v>1.038725141338622</v>
+        <v>1.032756570854306</v>
       </c>
       <c r="F4">
-        <v>1.046787778042282</v>
+        <v>1.044259435919462</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.058682705679196</v>
+        <v>1.056312155453926</v>
       </c>
       <c r="J4">
-        <v>1.046948890808348</v>
+        <v>1.038024184775566</v>
       </c>
       <c r="K4">
-        <v>1.051345620939393</v>
+        <v>1.047154833101388</v>
       </c>
       <c r="L4">
-        <v>1.048377616992077</v>
+        <v>1.042475095719774</v>
       </c>
       <c r="M4">
-        <v>1.056352497755268</v>
+        <v>1.053851495885337</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.029994167738383</v>
+        <v>1.020271098632371</v>
       </c>
       <c r="D5">
-        <v>1.043086317779282</v>
+        <v>1.038362011859131</v>
       </c>
       <c r="E5">
-        <v>1.04024218809288</v>
+        <v>1.033715880679741</v>
       </c>
       <c r="F5">
-        <v>1.048417851573013</v>
+        <v>1.045257532528605</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.059326261405705</v>
+        <v>1.056639396947458</v>
       </c>
       <c r="J5">
-        <v>1.048225249431524</v>
+        <v>1.038728508702361</v>
       </c>
       <c r="K5">
-        <v>1.052478840075016</v>
+        <v>1.047804917854817</v>
       </c>
       <c r="L5">
-        <v>1.049664975283203</v>
+        <v>1.043208887506252</v>
       </c>
       <c r="M5">
-        <v>1.057754180782047</v>
+        <v>1.054627086127899</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.030286982350541</v>
+        <v>1.020467528449015</v>
       </c>
       <c r="D6">
-        <v>1.043313532582861</v>
+        <v>1.038508077474522</v>
       </c>
       <c r="E6">
-        <v>1.040495637675831</v>
+        <v>1.033876402202465</v>
       </c>
       <c r="F6">
-        <v>1.048690198701217</v>
+        <v>1.045424519191556</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.059433554062029</v>
+        <v>1.056693934808991</v>
       </c>
       <c r="J6">
-        <v>1.048438362928378</v>
+        <v>1.038846270723668</v>
       </c>
       <c r="K6">
-        <v>1.052668013642381</v>
+        <v>1.047913566693021</v>
       </c>
       <c r="L6">
-        <v>1.04987995973832</v>
+        <v>1.043331605039259</v>
       </c>
       <c r="M6">
-        <v>1.057988285314508</v>
+        <v>1.054756774123465</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.028264538034631</v>
+        <v>1.01911241684031</v>
       </c>
       <c r="D7">
-        <v>1.041744259101013</v>
+        <v>1.037500458187927</v>
       </c>
       <c r="E7">
-        <v>1.038745497910243</v>
+        <v>1.032769426296115</v>
       </c>
       <c r="F7">
-        <v>1.04680965030501</v>
+        <v>1.044272812813558</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.058691356368938</v>
+        <v>1.05631655545406</v>
       </c>
       <c r="J7">
-        <v>1.046966026096567</v>
+        <v>1.038033629446825</v>
       </c>
       <c r="K7">
-        <v>1.051360837236842</v>
+        <v>1.047163553427866</v>
       </c>
       <c r="L7">
-        <v>1.048394897638298</v>
+        <v>1.042484933623905</v>
       </c>
       <c r="M7">
-        <v>1.056371311122594</v>
+        <v>1.053861895506212</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.019577314509612</v>
+        <v>1.013334915577765</v>
       </c>
       <c r="D8">
-        <v>1.035006182814726</v>
+        <v>1.033205990087067</v>
       </c>
       <c r="E8">
-        <v>1.031238907448978</v>
+        <v>1.028060604315299</v>
       </c>
       <c r="F8">
-        <v>1.038745792357797</v>
+        <v>1.039370062788842</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.055474914520315</v>
+        <v>1.054679263157378</v>
       </c>
       <c r="J8">
-        <v>1.040632470765056</v>
+        <v>1.034563247051393</v>
       </c>
       <c r="K8">
-        <v>1.045731965784679</v>
+        <v>1.043954193858043</v>
       </c>
       <c r="L8">
-        <v>1.042011722170064</v>
+        <v>1.038873432401019</v>
       </c>
       <c r="M8">
-        <v>1.049425308862824</v>
+        <v>1.050041896164643</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.00328571530801</v>
+        <v>1.002694438702872</v>
       </c>
       <c r="D9">
-        <v>1.022386387650661</v>
+        <v>1.025306526967201</v>
       </c>
       <c r="E9">
-        <v>1.01720930057531</v>
+        <v>1.019432725938854</v>
       </c>
       <c r="F9">
-        <v>1.023682092255535</v>
+        <v>1.030373062058254</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.049337015641171</v>
+        <v>1.051558579156909</v>
       </c>
       <c r="J9">
-        <v>1.028722977650632</v>
+        <v>1.028152406868487</v>
       </c>
       <c r="K9">
-        <v>1.035126410272681</v>
+        <v>1.038001945491006</v>
       </c>
       <c r="L9">
-        <v>1.03002920565203</v>
+        <v>1.032218196631997</v>
       </c>
       <c r="M9">
-        <v>1.036402283391338</v>
+        <v>1.042991854714427</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9916532225538756</v>
+        <v>0.9952586488297539</v>
       </c>
       <c r="D10">
-        <v>1.013393684512689</v>
+        <v>1.019796706492037</v>
       </c>
       <c r="E10">
-        <v>1.007230355376972</v>
+        <v>1.013436635271582</v>
       </c>
       <c r="F10">
-        <v>1.012972058340416</v>
+        <v>1.024111299761677</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044886438622068</v>
+        <v>1.049309820406454</v>
       </c>
       <c r="J10">
-        <v>1.020201962189207</v>
+        <v>1.023661653466452</v>
       </c>
       <c r="K10">
-        <v>1.02752525068264</v>
+        <v>1.033817493877229</v>
       </c>
       <c r="L10">
-        <v>1.021470279236912</v>
+        <v>1.027567452311024</v>
       </c>
       <c r="M10">
-        <v>1.027110982718858</v>
+        <v>1.038058448771934</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9864049159600284</v>
+        <v>0.9919497436053331</v>
       </c>
       <c r="D11">
-        <v>1.009342397960454</v>
+        <v>1.017348263991261</v>
       </c>
       <c r="E11">
-        <v>1.002738705649029</v>
+        <v>1.010777039957348</v>
       </c>
       <c r="F11">
-        <v>1.008152239574221</v>
+        <v>1.021331737423663</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.042863304146991</v>
+        <v>1.048293764381883</v>
       </c>
       <c r="J11">
-        <v>1.016354410905558</v>
+        <v>1.02166130030574</v>
       </c>
       <c r="K11">
-        <v>1.024090255046352</v>
+        <v>1.031950269080953</v>
       </c>
       <c r="L11">
-        <v>1.017609158148803</v>
+        <v>1.025498539231689</v>
       </c>
       <c r="M11">
-        <v>1.022922036925203</v>
+        <v>1.035862277118384</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9844209554700802</v>
+        <v>0.9907065409529187</v>
       </c>
       <c r="D12">
-        <v>1.007811999494072</v>
+        <v>1.016428944468817</v>
       </c>
       <c r="E12">
-        <v>1.001042512066413</v>
+        <v>1.009779159793166</v>
       </c>
       <c r="F12">
-        <v>1.006332240275571</v>
+        <v>1.020288529778684</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.042096341030684</v>
+        <v>1.047909775986308</v>
       </c>
       <c r="J12">
-        <v>1.014899602732609</v>
+        <v>1.020909491743229</v>
       </c>
       <c r="K12">
-        <v>1.022791048858376</v>
+        <v>1.031248018203198</v>
       </c>
       <c r="L12">
-        <v>1.016149766408204</v>
+        <v>1.024721374468286</v>
       </c>
       <c r="M12">
-        <v>1.021339121833836</v>
+        <v>1.035037089419194</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9848481309134932</v>
+        <v>0.9909738637818294</v>
       </c>
       <c r="D13">
-        <v>1.00814146558803</v>
+        <v>1.016626595246187</v>
       </c>
       <c r="E13">
-        <v>1.001407646337696</v>
+        <v>1.009993668603389</v>
       </c>
       <c r="F13">
-        <v>1.006724020562569</v>
+        <v>1.020512796600237</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.042261576071699</v>
+        <v>1.047992444261728</v>
       </c>
       <c r="J13">
-        <v>1.015212858537576</v>
+        <v>1.021071161655359</v>
       </c>
       <c r="K13">
-        <v>1.023070816886633</v>
+        <v>1.03139905238371</v>
       </c>
       <c r="L13">
-        <v>1.01646398421268</v>
+        <v>1.024888478352687</v>
       </c>
       <c r="M13">
-        <v>1.021679917759549</v>
+        <v>1.035214528859723</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9862416421354201</v>
+        <v>0.9918472727068685</v>
       </c>
       <c r="D14">
-        <v>1.009216428284719</v>
+        <v>1.017272476553455</v>
       </c>
       <c r="E14">
-        <v>1.002599078070693</v>
+        <v>1.010694761544799</v>
       </c>
       <c r="F14">
-        <v>1.008002418151034</v>
+        <v>1.021245728016379</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.042800229087196</v>
+        <v>1.048262159337789</v>
       </c>
       <c r="J14">
-        <v>1.016234691370336</v>
+        <v>1.021599337267559</v>
       </c>
       <c r="K14">
-        <v>1.023983348106279</v>
+        <v>1.031892400095714</v>
       </c>
       <c r="L14">
-        <v>1.017489050229903</v>
+        <v>1.025434477983369</v>
       </c>
       <c r="M14">
-        <v>1.022791755230719</v>
+        <v>1.035794261784856</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9870955702621685</v>
+        <v>0.9923835139164072</v>
       </c>
       <c r="D15">
-        <v>1.009875298668789</v>
+        <v>1.017669105108365</v>
       </c>
       <c r="E15">
-        <v>1.003329406927144</v>
+        <v>1.011125389471515</v>
       </c>
       <c r="F15">
-        <v>1.008786071270965</v>
+        <v>1.021695870325443</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.043130025939619</v>
+        <v>1.048427460944459</v>
       </c>
       <c r="J15">
-        <v>1.016860814943116</v>
+        <v>1.021923586711366</v>
       </c>
       <c r="K15">
-        <v>1.024542447132124</v>
+        <v>1.032195206247199</v>
       </c>
       <c r="L15">
-        <v>1.018117227362045</v>
+        <v>1.02576972404482</v>
       </c>
       <c r="M15">
-        <v>1.023473157934465</v>
+        <v>1.036150191504343</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9919968546280729</v>
+        <v>0.9954763100781217</v>
       </c>
       <c r="D16">
-        <v>1.013659079722071</v>
+        <v>1.019957844102514</v>
       </c>
       <c r="E16">
-        <v>1.007524676970389</v>
+        <v>1.013611770536765</v>
       </c>
       <c r="F16">
-        <v>1.013287901243582</v>
+        <v>1.024294290820626</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.045018597138957</v>
+        <v>1.049376342390788</v>
       </c>
       <c r="J16">
-        <v>1.020453824694487</v>
+        <v>1.023793200482957</v>
       </c>
       <c r="K16">
-        <v>1.027750051633133</v>
+        <v>1.033940218860603</v>
       </c>
       <c r="L16">
-        <v>1.021723104690804</v>
+        <v>1.027703564716839</v>
       </c>
       <c r="M16">
-        <v>1.027385327183443</v>
+        <v>1.03820290252535</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9950128692171589</v>
+        <v>0.9973919671641547</v>
       </c>
       <c r="D17">
-        <v>1.015989116581639</v>
+        <v>1.021376429518184</v>
       </c>
       <c r="E17">
-        <v>1.010109115108843</v>
+        <v>1.01515414514695</v>
       </c>
       <c r="F17">
-        <v>1.016061418659527</v>
+        <v>1.025905607348345</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.046176835005048</v>
+        <v>1.04996006693869</v>
       </c>
       <c r="J17">
-        <v>1.022664053772643</v>
+        <v>1.024950738473113</v>
       </c>
       <c r="K17">
-        <v>1.029722488716619</v>
+        <v>1.035019753718315</v>
       </c>
       <c r="L17">
-        <v>1.023942186580501</v>
+        <v>1.0289015840191</v>
       </c>
       <c r="M17">
-        <v>1.029793574126338</v>
+        <v>1.039474168211282</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C18">
-        <v>0.9967518682183635</v>
+        <v>0.99850078703784</v>
       </c>
       <c r="D18">
-        <v>1.017333143098545</v>
+        <v>1.022197852805343</v>
       </c>
       <c r="E18">
-        <v>1.011600261463506</v>
+        <v>1.016047718021909</v>
       </c>
       <c r="F18">
-        <v>1.017661744430967</v>
+        <v>1.026838919083206</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.046843229901513</v>
+        <v>1.050296475150835</v>
       </c>
       <c r="J18">
-        <v>1.023938150178059</v>
+        <v>1.02562055272438</v>
       </c>
       <c r="K18">
-        <v>1.030859244075503</v>
+        <v>1.035644115722404</v>
       </c>
       <c r="L18">
-        <v>1.025221719076767</v>
+        <v>1.029595079359849</v>
       </c>
       <c r="M18">
-        <v>1.031182421578675</v>
+        <v>1.040209919202032</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9973414755784467</v>
+        <v>0.998877437087533</v>
       </c>
       <c r="D19">
-        <v>1.017788924553483</v>
+        <v>1.022476929982612</v>
       </c>
       <c r="E19">
-        <v>1.012105998280743</v>
+        <v>1.016351388255802</v>
       </c>
       <c r="F19">
-        <v>1.018204525517935</v>
+        <v>1.027156059634289</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.047068925477859</v>
+        <v>1.050410498037122</v>
       </c>
       <c r="J19">
-        <v>1.024370079327588</v>
+        <v>1.025848044993943</v>
       </c>
       <c r="K19">
-        <v>1.031244567742683</v>
+        <v>1.035856116727871</v>
       </c>
       <c r="L19">
-        <v>1.025655547173429</v>
+        <v>1.029830657915251</v>
       </c>
       <c r="M19">
-        <v>1.031653354126425</v>
+        <v>1.040459827172536</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9946913867403691</v>
+        <v>0.997187324842687</v>
       </c>
       <c r="D20">
-        <v>1.015740695025382</v>
+        <v>1.021224853873051</v>
       </c>
       <c r="E20">
-        <v>1.009833531409318</v>
+        <v>1.014989294014623</v>
       </c>
       <c r="F20">
-        <v>1.015765664217112</v>
+        <v>1.025733408588726</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.046053524418061</v>
+        <v>1.049897861184307</v>
       </c>
       <c r="J20">
-        <v>1.022428491508452</v>
+        <v>1.024827102625305</v>
       </c>
       <c r="K20">
-        <v>1.029512297212886</v>
+        <v>1.034904481913865</v>
       </c>
       <c r="L20">
-        <v>1.023705646119925</v>
+        <v>1.028773597755133</v>
       </c>
       <c r="M20">
-        <v>1.029536844745904</v>
+        <v>1.039338371841949</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9858322640615823</v>
+        <v>0.9915904716860438</v>
       </c>
       <c r="D21">
-        <v>1.00890060099105</v>
+        <v>1.017082556489573</v>
       </c>
       <c r="E21">
-        <v>1.002249016894251</v>
+        <v>1.01048858692658</v>
       </c>
       <c r="F21">
-        <v>1.00762680182912</v>
+        <v>1.021030199132314</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.042642045648017</v>
+        <v>1.048182918454897</v>
       </c>
       <c r="J21">
-        <v>1.015934511967144</v>
+        <v>1.02144404866981</v>
       </c>
       <c r="K21">
-        <v>1.023715288251676</v>
+        <v>1.031747364190422</v>
       </c>
       <c r="L21">
-        <v>1.017187905866046</v>
+        <v>1.025273937599464</v>
       </c>
       <c r="M21">
-        <v>1.022465108536833</v>
+        <v>1.035623808773825</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9800609328895751</v>
+        <v>0.9879893677301994</v>
       </c>
       <c r="D22">
-        <v>1.004450899723854</v>
+        <v>1.014420846412903</v>
       </c>
       <c r="E22">
-        <v>0.9973182665868707</v>
+        <v>1.007600761953818</v>
       </c>
       <c r="F22">
-        <v>1.002336368408325</v>
+        <v>1.018010604820814</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040406929838141</v>
+        <v>1.047066476133474</v>
       </c>
       <c r="J22">
-        <v>1.011701921341379</v>
+        <v>1.019265923325789</v>
       </c>
       <c r="K22">
-        <v>1.019934696091489</v>
+        <v>1.029711936292811</v>
       </c>
       <c r="L22">
-        <v>1.012943036995064</v>
+        <v>1.023023135211334</v>
       </c>
       <c r="M22">
-        <v>1.017861683036218</v>
+        <v>1.033233517014568</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9831405071648197</v>
+        <v>0.9899064251146362</v>
       </c>
       <c r="D23">
-        <v>1.006824602237367</v>
+        <v>1.015837455690734</v>
       </c>
       <c r="E23">
-        <v>0.9999482968645826</v>
+        <v>1.009137325832038</v>
       </c>
       <c r="F23">
-        <v>1.005158190369222</v>
+        <v>1.019617452789942</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.041600741229343</v>
+        <v>1.047662020853893</v>
       </c>
       <c r="J23">
-        <v>1.013960581429173</v>
+        <v>1.020425570149971</v>
       </c>
       <c r="K23">
-        <v>1.021952356241812</v>
+        <v>1.030795863913792</v>
       </c>
       <c r="L23">
-        <v>1.015207942827972</v>
+        <v>1.024221248176592</v>
       </c>
       <c r="M23">
-        <v>1.020317690464531</v>
+        <v>1.034505998217959</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9948367130268091</v>
+        <v>0.9972798202692595</v>
       </c>
       <c r="D24">
-        <v>1.015852992383233</v>
+        <v>1.021293362934221</v>
       </c>
       <c r="E24">
-        <v>1.00995810607281</v>
+        <v>1.015063801862754</v>
       </c>
       <c r="F24">
-        <v>1.015899356580763</v>
+        <v>1.025811237975639</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04610927147247</v>
+        <v>1.049925981843708</v>
       </c>
       <c r="J24">
-        <v>1.022534978454015</v>
+        <v>1.024882984872078</v>
       </c>
       <c r="K24">
-        <v>1.029607316020387</v>
+        <v>1.034956584670781</v>
       </c>
       <c r="L24">
-        <v>1.02381257423076</v>
+        <v>1.028831445554628</v>
       </c>
       <c r="M24">
-        <v>1.029652898507479</v>
+        <v>1.039399750135656</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.007624694124977</v>
+        <v>1.005503013478931</v>
       </c>
       <c r="D25">
-        <v>1.025744885442697</v>
+        <v>1.027390088401498</v>
       </c>
       <c r="E25">
-        <v>1.02093972625597</v>
+        <v>1.021704576566999</v>
       </c>
       <c r="F25">
-        <v>1.02768667553781</v>
+        <v>1.03274370235217</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.050983641998976</v>
+        <v>1.052394249071616</v>
       </c>
       <c r="J25">
-        <v>1.031898153588154</v>
+        <v>1.029846588000664</v>
       </c>
       <c r="K25">
-        <v>1.037956271193144</v>
+        <v>1.039577583551861</v>
       </c>
       <c r="L25">
-        <v>1.033221449337868</v>
+        <v>1.033975047650627</v>
       </c>
       <c r="M25">
-        <v>1.039869874151877</v>
+        <v>1.04485412261854</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_16/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_16/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.011817489373926</v>
+        <v>1.040841954743475</v>
       </c>
       <c r="D2">
-        <v>1.032078585082279</v>
+        <v>1.047248882650956</v>
       </c>
       <c r="E2">
-        <v>1.026826708818055</v>
+        <v>1.048779703637209</v>
       </c>
       <c r="F2">
-        <v>1.038084423467972</v>
+        <v>1.058631582101418</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.054242112447355</v>
+        <v>1.040657333725013</v>
       </c>
       <c r="J2">
-        <v>1.033650396389668</v>
+        <v>1.045926379842882</v>
       </c>
       <c r="K2">
-        <v>1.043108396758819</v>
+        <v>1.05001204938615</v>
       </c>
       <c r="L2">
-        <v>1.03792454021589</v>
+        <v>1.051538596173364</v>
       </c>
       <c r="M2">
-        <v>1.049037503862966</v>
+        <v>1.061363287630382</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.016271659368335</v>
+        <v>1.041789827902005</v>
       </c>
       <c r="D3">
-        <v>1.035388553153455</v>
+        <v>1.047963768525999</v>
       </c>
       <c r="E3">
-        <v>1.030451969234584</v>
+        <v>1.049596995860929</v>
       </c>
       <c r="F3">
-        <v>1.041860633772852</v>
+        <v>1.059473834301504</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.055517063820419</v>
+        <v>1.040844806873969</v>
       </c>
       <c r="J3">
-        <v>1.036328361381446</v>
+        <v>1.046520044721692</v>
       </c>
       <c r="K3">
-        <v>1.045587801066666</v>
+        <v>1.050538992793409</v>
       </c>
       <c r="L3">
-        <v>1.040709491490303</v>
+        <v>1.052167988974688</v>
       </c>
       <c r="M3">
-        <v>1.051984515248962</v>
+        <v>1.062019539487099</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.019096672802832</v>
+        <v>1.042403625761958</v>
       </c>
       <c r="D4">
-        <v>1.03748875204861</v>
+        <v>1.048426429402844</v>
       </c>
       <c r="E4">
-        <v>1.032756570854306</v>
+        <v>1.050126540764277</v>
       </c>
       <c r="F4">
-        <v>1.044259435919462</v>
+        <v>1.060019336896839</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.056312155453926</v>
+        <v>1.040964521540481</v>
       </c>
       <c r="J4">
-        <v>1.038024184775566</v>
+        <v>1.046904020301928</v>
       </c>
       <c r="K4">
-        <v>1.047154833101388</v>
+        <v>1.050879369848693</v>
       </c>
       <c r="L4">
-        <v>1.042475095719774</v>
+        <v>1.052575298091038</v>
       </c>
       <c r="M4">
-        <v>1.053851495885337</v>
+        <v>1.062444039145143</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.020271098632371</v>
+        <v>1.04266177549961</v>
       </c>
       <c r="D5">
-        <v>1.038362011859131</v>
+        <v>1.048620950089612</v>
       </c>
       <c r="E5">
-        <v>1.033715880679741</v>
+        <v>1.050349328026034</v>
       </c>
       <c r="F5">
-        <v>1.045257532528605</v>
+        <v>1.060248786453723</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.056639396947458</v>
+        <v>1.041014467468612</v>
       </c>
       <c r="J5">
-        <v>1.038728508702361</v>
+        <v>1.047065402951568</v>
       </c>
       <c r="K5">
-        <v>1.047804917854817</v>
+        <v>1.051022321784938</v>
       </c>
       <c r="L5">
-        <v>1.043208887506252</v>
+        <v>1.052746541571358</v>
       </c>
       <c r="M5">
-        <v>1.054627086127899</v>
+        <v>1.062622464135098</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.020467528449015</v>
+        <v>1.042705126342132</v>
       </c>
       <c r="D6">
-        <v>1.038508077474522</v>
+        <v>1.048653611982235</v>
       </c>
       <c r="E6">
-        <v>1.033876402202465</v>
+        <v>1.050386744711946</v>
       </c>
       <c r="F6">
-        <v>1.045424519191556</v>
+        <v>1.060287319049401</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.056693934808991</v>
+        <v>1.041022831180278</v>
       </c>
       <c r="J6">
-        <v>1.038846270723668</v>
+        <v>1.047092497390433</v>
       </c>
       <c r="K6">
-        <v>1.047913566693021</v>
+        <v>1.051046315648409</v>
       </c>
       <c r="L6">
-        <v>1.043331605039259</v>
+        <v>1.052775294698919</v>
       </c>
       <c r="M6">
-        <v>1.054756774123465</v>
+        <v>1.062652420403944</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.01911241684031</v>
+        <v>1.042407074744051</v>
       </c>
       <c r="D7">
-        <v>1.037500458187927</v>
+        <v>1.048429028528803</v>
       </c>
       <c r="E7">
-        <v>1.032769426296115</v>
+        <v>1.050129517005922</v>
       </c>
       <c r="F7">
-        <v>1.044272812813558</v>
+        <v>1.060022402342518</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.05631655545406</v>
+        <v>1.040965190422823</v>
       </c>
       <c r="J7">
-        <v>1.038033629446825</v>
+        <v>1.046906176866051</v>
       </c>
       <c r="K7">
-        <v>1.047163553427866</v>
+        <v>1.050881280541202</v>
       </c>
       <c r="L7">
-        <v>1.042484933623905</v>
+        <v>1.05257758621418</v>
       </c>
       <c r="M7">
-        <v>1.053861895506212</v>
+        <v>1.062446423406503</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.013334915577765</v>
+        <v>1.041162196872237</v>
       </c>
       <c r="D8">
-        <v>1.033205990087067</v>
+        <v>1.04749046378489</v>
       </c>
       <c r="E8">
-        <v>1.028060604315299</v>
+        <v>1.049055765066056</v>
       </c>
       <c r="F8">
-        <v>1.039370062788842</v>
+        <v>1.058916118793409</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.054679263157378</v>
+        <v>1.040721020543168</v>
       </c>
       <c r="J8">
-        <v>1.034563247051393</v>
+        <v>1.046127045224978</v>
       </c>
       <c r="K8">
-        <v>1.043954193858043</v>
+        <v>1.050190253940472</v>
       </c>
       <c r="L8">
-        <v>1.038873432401019</v>
+        <v>1.051751291357824</v>
       </c>
       <c r="M8">
-        <v>1.050041896164643</v>
+        <v>1.061585099026019</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.002694438702872</v>
+        <v>1.038972140361892</v>
       </c>
       <c r="D9">
-        <v>1.025306526967201</v>
+        <v>1.045837288638574</v>
       </c>
       <c r="E9">
-        <v>1.019432725938854</v>
+        <v>1.047169121826968</v>
       </c>
       <c r="F9">
-        <v>1.030373062058254</v>
+        <v>1.056970676060698</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.051558579156909</v>
+        <v>1.040278594578323</v>
       </c>
       <c r="J9">
-        <v>1.028152406868487</v>
+        <v>1.0447528987659</v>
       </c>
       <c r="K9">
-        <v>1.038001945491006</v>
+        <v>1.048968106353969</v>
       </c>
       <c r="L9">
-        <v>1.032218196631997</v>
+        <v>1.050295689857731</v>
       </c>
       <c r="M9">
-        <v>1.042991854714427</v>
+        <v>1.060066328824306</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9952586488297539</v>
+        <v>1.037514574166634</v>
       </c>
       <c r="D10">
-        <v>1.019796706492037</v>
+        <v>1.044735731347859</v>
       </c>
       <c r="E10">
-        <v>1.013436635271582</v>
+        <v>1.045915110091231</v>
       </c>
       <c r="F10">
-        <v>1.024111299761677</v>
+        <v>1.055676478678548</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.049309820406454</v>
+        <v>1.03997550721785</v>
       </c>
       <c r="J10">
-        <v>1.023661653466452</v>
+        <v>1.043836048199366</v>
       </c>
       <c r="K10">
-        <v>1.033817493877229</v>
+        <v>1.04815040581109</v>
       </c>
       <c r="L10">
-        <v>1.027567452311024</v>
+        <v>1.049325653209698</v>
       </c>
       <c r="M10">
-        <v>1.038058448771934</v>
+        <v>1.059053217797845</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9919497436053331</v>
+        <v>1.036884031659322</v>
       </c>
       <c r="D11">
-        <v>1.017348263991261</v>
+        <v>1.044258896679017</v>
       </c>
       <c r="E11">
-        <v>1.010777039957348</v>
+        <v>1.045373017398822</v>
       </c>
       <c r="F11">
-        <v>1.021331737423663</v>
+        <v>1.055116752421304</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.048293764381883</v>
+        <v>1.039842346216686</v>
       </c>
       <c r="J11">
-        <v>1.02166130030574</v>
+        <v>1.043438876721925</v>
       </c>
       <c r="K11">
-        <v>1.031950269080953</v>
+        <v>1.047795650753816</v>
       </c>
       <c r="L11">
-        <v>1.025498539231689</v>
+        <v>1.048905717903949</v>
       </c>
       <c r="M11">
-        <v>1.035862277118384</v>
+        <v>1.058614404270923</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9907065409529187</v>
+        <v>1.036649910269895</v>
       </c>
       <c r="D12">
-        <v>1.016428944468817</v>
+        <v>1.044081802637775</v>
       </c>
       <c r="E12">
-        <v>1.009779159793166</v>
+        <v>1.045171797138243</v>
       </c>
       <c r="F12">
-        <v>1.020288529778684</v>
+        <v>1.054908947362323</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.047909775986308</v>
+        <v>1.039792596201591</v>
       </c>
       <c r="J12">
-        <v>1.020909491743229</v>
+        <v>1.043291325199106</v>
       </c>
       <c r="K12">
-        <v>1.031248018203198</v>
+        <v>1.047663777107247</v>
       </c>
       <c r="L12">
-        <v>1.024721374468286</v>
+        <v>1.048749750972154</v>
       </c>
       <c r="M12">
-        <v>1.035037089419194</v>
+        <v>1.058451391189444</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9909738637818294</v>
+        <v>1.036700126005447</v>
       </c>
       <c r="D13">
-        <v>1.016626595246187</v>
+        <v>1.0441197888192</v>
       </c>
       <c r="E13">
-        <v>1.009993668603389</v>
+        <v>1.045214953339195</v>
       </c>
       <c r="F13">
-        <v>1.020512796600237</v>
+        <v>1.054953517603145</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.047992444261728</v>
+        <v>1.039803280774266</v>
       </c>
       <c r="J13">
-        <v>1.021071161655359</v>
+        <v>1.043322976586635</v>
       </c>
       <c r="K13">
-        <v>1.03139905238371</v>
+        <v>1.047692069041521</v>
       </c>
       <c r="L13">
-        <v>1.024888478352687</v>
+        <v>1.048783205677498</v>
       </c>
       <c r="M13">
-        <v>1.035214528859723</v>
+        <v>1.058486358851555</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9918472727068685</v>
+        <v>1.036864677266718</v>
       </c>
       <c r="D14">
-        <v>1.017272476553455</v>
+        <v>1.044244257540436</v>
       </c>
       <c r="E14">
-        <v>1.010694761544799</v>
+        <v>1.045356381663881</v>
       </c>
       <c r="F14">
-        <v>1.021245728016379</v>
+        <v>1.055099573096479</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.048262159337789</v>
+        <v>1.039838239737861</v>
       </c>
       <c r="J14">
-        <v>1.021599337267559</v>
+        <v>1.04342668055768</v>
       </c>
       <c r="K14">
-        <v>1.031892400095714</v>
+        <v>1.047784752107625</v>
       </c>
       <c r="L14">
-        <v>1.025434477983369</v>
+        <v>1.048892825300891</v>
       </c>
       <c r="M14">
-        <v>1.035794261784856</v>
+        <v>1.05860092992253</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9923835139164072</v>
+        <v>1.036966074709573</v>
       </c>
       <c r="D15">
-        <v>1.017669105108365</v>
+        <v>1.044320949998159</v>
       </c>
       <c r="E15">
-        <v>1.011125389471515</v>
+        <v>1.045443538534229</v>
       </c>
       <c r="F15">
-        <v>1.021695870325443</v>
+        <v>1.055189576295141</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.048427460944459</v>
+        <v>1.039859740955118</v>
       </c>
       <c r="J15">
-        <v>1.021923586711366</v>
+        <v>1.043490572801649</v>
       </c>
       <c r="K15">
-        <v>1.032195206247199</v>
+        <v>1.04784184374511</v>
       </c>
       <c r="L15">
-        <v>1.02576972404482</v>
+        <v>1.048960367689238</v>
       </c>
       <c r="M15">
-        <v>1.036150191504343</v>
+        <v>1.05867151856782</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9954763100781217</v>
+        <v>1.037556433784521</v>
       </c>
       <c r="D16">
-        <v>1.019957844102514</v>
+        <v>1.044767380518971</v>
       </c>
       <c r="E16">
-        <v>1.013611770536765</v>
+        <v>1.045951106142974</v>
       </c>
       <c r="F16">
-        <v>1.024294290820626</v>
+        <v>1.055713640111979</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.049376342390788</v>
+        <v>1.039984304236276</v>
       </c>
       <c r="J16">
-        <v>1.023793200482957</v>
+        <v>1.043862403689211</v>
       </c>
       <c r="K16">
-        <v>1.033940218860603</v>
+        <v>1.048173935394194</v>
       </c>
       <c r="L16">
-        <v>1.027703564716839</v>
+        <v>1.049353525075809</v>
       </c>
       <c r="M16">
-        <v>1.03820290252535</v>
+        <v>1.059082337783127</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9973919671641547</v>
+        <v>1.037926910004966</v>
       </c>
       <c r="D17">
-        <v>1.021376429518184</v>
+        <v>1.045047454992076</v>
       </c>
       <c r="E17">
-        <v>1.01515414514695</v>
+        <v>1.046269732613674</v>
       </c>
       <c r="F17">
-        <v>1.025905607348345</v>
+        <v>1.056042551920834</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.04996006693869</v>
+        <v>1.040061925362006</v>
       </c>
       <c r="J17">
-        <v>1.024950738473113</v>
+        <v>1.044095598847425</v>
       </c>
       <c r="K17">
-        <v>1.035019753718315</v>
+        <v>1.048382065036125</v>
       </c>
       <c r="L17">
-        <v>1.0289015840191</v>
+        <v>1.049600169104447</v>
       </c>
       <c r="M17">
-        <v>1.039474168211282</v>
+        <v>1.059339999997136</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.99850078703784</v>
+        <v>1.038143059688851</v>
       </c>
       <c r="D18">
-        <v>1.022197852805343</v>
+        <v>1.045210831766843</v>
       </c>
       <c r="E18">
-        <v>1.016047718021909</v>
+        <v>1.046455669037769</v>
       </c>
       <c r="F18">
-        <v>1.026838919083206</v>
+        <v>1.056234465130057</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.050296475150835</v>
+        <v>1.040107014942993</v>
       </c>
       <c r="J18">
-        <v>1.02562055272438</v>
+        <v>1.044231601248224</v>
       </c>
       <c r="K18">
-        <v>1.035644115722404</v>
+        <v>1.04850339733468</v>
       </c>
       <c r="L18">
-        <v>1.029595079359849</v>
+        <v>1.049744041670713</v>
       </c>
       <c r="M18">
-        <v>1.040209919202032</v>
+        <v>1.059490277399844</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.998877437087533</v>
+        <v>1.038216770811076</v>
       </c>
       <c r="D19">
-        <v>1.022476929982612</v>
+        <v>1.045266541365896</v>
       </c>
       <c r="E19">
-        <v>1.016351388255802</v>
+        <v>1.046519083263848</v>
       </c>
       <c r="F19">
-        <v>1.027156059634289</v>
+        <v>1.056299913470041</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.050410498037122</v>
+        <v>1.040122357838289</v>
       </c>
       <c r="J19">
-        <v>1.025848044993943</v>
+        <v>1.044277971740098</v>
       </c>
       <c r="K19">
-        <v>1.035856116727871</v>
+        <v>1.048544757249544</v>
       </c>
       <c r="L19">
-        <v>1.029830657915251</v>
+        <v>1.049793100035746</v>
       </c>
       <c r="M19">
-        <v>1.040459827172536</v>
+        <v>1.059541515932726</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.997187324842687</v>
+        <v>1.037887155491493</v>
       </c>
       <c r="D20">
-        <v>1.021224853873051</v>
+        <v>1.045017404185098</v>
       </c>
       <c r="E20">
-        <v>1.014989294014623</v>
+        <v>1.046235537999811</v>
       </c>
       <c r="F20">
-        <v>1.025733408588726</v>
+        <v>1.056007256111972</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.049897861184307</v>
+        <v>1.040053616532782</v>
       </c>
       <c r="J20">
-        <v>1.024827102625305</v>
+        <v>1.044070580901474</v>
       </c>
       <c r="K20">
-        <v>1.034904481913865</v>
+        <v>1.048359741534415</v>
       </c>
       <c r="L20">
-        <v>1.028773597755133</v>
+        <v>1.049573705566322</v>
       </c>
       <c r="M20">
-        <v>1.039338371841949</v>
+        <v>1.059312356574716</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9915904716860438</v>
+        <v>1.036816218524036</v>
       </c>
       <c r="D21">
-        <v>1.017082556489573</v>
+        <v>1.044207603941107</v>
       </c>
       <c r="E21">
-        <v>1.01048858692658</v>
+        <v>1.045314730750654</v>
       </c>
       <c r="F21">
-        <v>1.021030199132314</v>
+        <v>1.055056560560341</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.048182918454897</v>
+        <v>1.039827953141543</v>
       </c>
       <c r="J21">
-        <v>1.02144404866981</v>
+        <v>1.043396142986706</v>
       </c>
       <c r="K21">
-        <v>1.031747364190422</v>
+        <v>1.047757462056392</v>
       </c>
       <c r="L21">
-        <v>1.025273937599464</v>
+        <v>1.048860544610152</v>
       </c>
       <c r="M21">
-        <v>1.035623808773825</v>
+        <v>1.05856719208973</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9879893677301994</v>
+        <v>1.036143400175186</v>
       </c>
       <c r="D22">
-        <v>1.014420846412903</v>
+        <v>1.04369858759383</v>
       </c>
       <c r="E22">
-        <v>1.007600761953818</v>
+        <v>1.044736576650717</v>
       </c>
       <c r="F22">
-        <v>1.018010604820814</v>
+        <v>1.054459412577566</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.047066476133474</v>
+        <v>1.039684403152175</v>
       </c>
       <c r="J22">
-        <v>1.019265923325789</v>
+        <v>1.04297195673072</v>
       </c>
       <c r="K22">
-        <v>1.029711936292811</v>
+        <v>1.047378196490866</v>
       </c>
       <c r="L22">
-        <v>1.023023135211334</v>
+        <v>1.048412243647202</v>
       </c>
       <c r="M22">
-        <v>1.033233517014568</v>
+        <v>1.058098572946278</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9899064251146362</v>
+        <v>1.036500024063011</v>
       </c>
       <c r="D23">
-        <v>1.015837455690734</v>
+        <v>1.043968413280169</v>
       </c>
       <c r="E23">
-        <v>1.009137325832038</v>
+        <v>1.045042991323698</v>
       </c>
       <c r="F23">
-        <v>1.019617452789942</v>
+        <v>1.054775915378547</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.047662020853893</v>
+        <v>1.03976065944711</v>
       </c>
       <c r="J23">
-        <v>1.020425570149971</v>
+        <v>1.043196838843471</v>
       </c>
       <c r="K23">
-        <v>1.030795863913792</v>
+        <v>1.047579307751326</v>
       </c>
       <c r="L23">
-        <v>1.024221248176592</v>
+        <v>1.048649887393461</v>
       </c>
       <c r="M23">
-        <v>1.034505998217959</v>
+        <v>1.058347006308754</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9972798202692595</v>
+        <v>1.03790511866833</v>
       </c>
       <c r="D24">
-        <v>1.021293362934221</v>
+        <v>1.045030982807922</v>
       </c>
       <c r="E24">
-        <v>1.015063801862754</v>
+        <v>1.046250988805281</v>
       </c>
       <c r="F24">
-        <v>1.025811237975639</v>
+        <v>1.056023204569523</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.049925981843708</v>
+        <v>1.040057371508307</v>
       </c>
       <c r="J24">
-        <v>1.024882984872078</v>
+        <v>1.0440818854851</v>
       </c>
       <c r="K24">
-        <v>1.034956584670781</v>
+        <v>1.048369828768587</v>
       </c>
       <c r="L24">
-        <v>1.028831445554628</v>
+        <v>1.049585663271538</v>
       </c>
       <c r="M24">
-        <v>1.039399750135656</v>
+        <v>1.059324847486489</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.005503013478931</v>
+        <v>1.039537891707631</v>
       </c>
       <c r="D25">
-        <v>1.027390088401498</v>
+        <v>1.046264582120025</v>
       </c>
       <c r="E25">
-        <v>1.021704576566999</v>
+        <v>1.047656209838127</v>
       </c>
       <c r="F25">
-        <v>1.03274370235217</v>
+        <v>1.057473139335992</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.052394249071616</v>
+        <v>1.040394409659634</v>
       </c>
       <c r="J25">
-        <v>1.029846588000664</v>
+        <v>1.045108286045295</v>
       </c>
       <c r="K25">
-        <v>1.039577583551861</v>
+        <v>1.049284583325093</v>
       </c>
       <c r="L25">
-        <v>1.033975047650627</v>
+        <v>1.050671938740634</v>
       </c>
       <c r="M25">
-        <v>1.04485412261854</v>
+        <v>1.060459078438381</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_16/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_16/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C2">
-        <v>1.040841954743475</v>
+        <v>1.011817489373927</v>
       </c>
       <c r="D2">
-        <v>1.047248882650956</v>
+        <v>1.03207858508228</v>
       </c>
       <c r="E2">
-        <v>1.048779703637209</v>
+        <v>1.026826708818056</v>
       </c>
       <c r="F2">
-        <v>1.058631582101418</v>
+        <v>1.038084423467974</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040657333725013</v>
+        <v>1.054242112447356</v>
       </c>
       <c r="J2">
-        <v>1.045926379842882</v>
+        <v>1.033650396389669</v>
       </c>
       <c r="K2">
-        <v>1.05001204938615</v>
+        <v>1.043108396758821</v>
       </c>
       <c r="L2">
-        <v>1.051538596173364</v>
+        <v>1.037924540215891</v>
       </c>
       <c r="M2">
-        <v>1.061363287630382</v>
+        <v>1.049037503862967</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.041789827902005</v>
+        <v>1.016271659368335</v>
       </c>
       <c r="D3">
-        <v>1.047963768525999</v>
+        <v>1.035388553153455</v>
       </c>
       <c r="E3">
-        <v>1.049596995860929</v>
+        <v>1.030451969234583</v>
       </c>
       <c r="F3">
-        <v>1.059473834301504</v>
+        <v>1.041860633772852</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.040844806873969</v>
+        <v>1.055517063820419</v>
       </c>
       <c r="J3">
-        <v>1.046520044721692</v>
+        <v>1.036328361381446</v>
       </c>
       <c r="K3">
-        <v>1.050538992793409</v>
+        <v>1.045587801066666</v>
       </c>
       <c r="L3">
-        <v>1.052167988974688</v>
+        <v>1.040709491490303</v>
       </c>
       <c r="M3">
-        <v>1.062019539487099</v>
+        <v>1.051984515248962</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.042403625761958</v>
+        <v>1.019096672802832</v>
       </c>
       <c r="D4">
-        <v>1.048426429402844</v>
+        <v>1.03748875204861</v>
       </c>
       <c r="E4">
-        <v>1.050126540764277</v>
+        <v>1.032756570854307</v>
       </c>
       <c r="F4">
-        <v>1.060019336896839</v>
+        <v>1.044259435919462</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.040964521540481</v>
+        <v>1.056312155453926</v>
       </c>
       <c r="J4">
-        <v>1.046904020301928</v>
+        <v>1.038024184775566</v>
       </c>
       <c r="K4">
-        <v>1.050879369848693</v>
+        <v>1.047154833101388</v>
       </c>
       <c r="L4">
-        <v>1.052575298091038</v>
+        <v>1.042475095719774</v>
       </c>
       <c r="M4">
-        <v>1.062444039145143</v>
+        <v>1.053851495885337</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.04266177549961</v>
+        <v>1.020271098632373</v>
       </c>
       <c r="D5">
-        <v>1.048620950089612</v>
+        <v>1.038362011859133</v>
       </c>
       <c r="E5">
-        <v>1.050349328026034</v>
+        <v>1.033715880679743</v>
       </c>
       <c r="F5">
-        <v>1.060248786453723</v>
+        <v>1.045257532528607</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041014467468612</v>
+        <v>1.056639396947459</v>
       </c>
       <c r="J5">
-        <v>1.047065402951568</v>
+        <v>1.038728508702363</v>
       </c>
       <c r="K5">
-        <v>1.051022321784938</v>
+        <v>1.047804917854819</v>
       </c>
       <c r="L5">
-        <v>1.052746541571358</v>
+        <v>1.043208887506254</v>
       </c>
       <c r="M5">
-        <v>1.062622464135098</v>
+        <v>1.054627086127901</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.042705126342132</v>
+        <v>1.020467528449015</v>
       </c>
       <c r="D6">
-        <v>1.048653611982235</v>
+        <v>1.038508077474522</v>
       </c>
       <c r="E6">
-        <v>1.050386744711946</v>
+        <v>1.033876402202464</v>
       </c>
       <c r="F6">
-        <v>1.060287319049401</v>
+        <v>1.045424519191555</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041022831180278</v>
+        <v>1.056693934808991</v>
       </c>
       <c r="J6">
-        <v>1.047092497390433</v>
+        <v>1.038846270723668</v>
       </c>
       <c r="K6">
-        <v>1.051046315648409</v>
+        <v>1.047913566693021</v>
       </c>
       <c r="L6">
-        <v>1.052775294698919</v>
+        <v>1.043331605039259</v>
       </c>
       <c r="M6">
-        <v>1.062652420403944</v>
+        <v>1.054756774123465</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.042407074744051</v>
+        <v>1.01911241684031</v>
       </c>
       <c r="D7">
-        <v>1.048429028528803</v>
+        <v>1.037500458187926</v>
       </c>
       <c r="E7">
-        <v>1.050129517005922</v>
+        <v>1.032769426296115</v>
       </c>
       <c r="F7">
-        <v>1.060022402342518</v>
+        <v>1.044272812813558</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.040965190422823</v>
+        <v>1.05631655545406</v>
       </c>
       <c r="J7">
-        <v>1.046906176866051</v>
+        <v>1.038033629446824</v>
       </c>
       <c r="K7">
-        <v>1.050881280541202</v>
+        <v>1.047163553427866</v>
       </c>
       <c r="L7">
-        <v>1.05257758621418</v>
+        <v>1.042484933623905</v>
       </c>
       <c r="M7">
-        <v>1.062446423406503</v>
+        <v>1.053861895506212</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.041162196872237</v>
+        <v>1.013334915577764</v>
       </c>
       <c r="D8">
-        <v>1.04749046378489</v>
+        <v>1.033205990087067</v>
       </c>
       <c r="E8">
-        <v>1.049055765066056</v>
+        <v>1.028060604315298</v>
       </c>
       <c r="F8">
-        <v>1.058916118793409</v>
+        <v>1.039370062788842</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040721020543168</v>
+        <v>1.054679263157378</v>
       </c>
       <c r="J8">
-        <v>1.046127045224978</v>
+        <v>1.034563247051393</v>
       </c>
       <c r="K8">
-        <v>1.050190253940472</v>
+        <v>1.043954193858043</v>
       </c>
       <c r="L8">
-        <v>1.051751291357824</v>
+        <v>1.038873432401019</v>
       </c>
       <c r="M8">
-        <v>1.061585099026019</v>
+        <v>1.050041896164642</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.038972140361892</v>
+        <v>1.002694438702873</v>
       </c>
       <c r="D9">
-        <v>1.045837288638574</v>
+        <v>1.025306526967202</v>
       </c>
       <c r="E9">
-        <v>1.047169121826968</v>
+        <v>1.019432725938854</v>
       </c>
       <c r="F9">
-        <v>1.056970676060698</v>
+        <v>1.030373062058254</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040278594578323</v>
+        <v>1.05155857915691</v>
       </c>
       <c r="J9">
-        <v>1.0447528987659</v>
+        <v>1.028152406868487</v>
       </c>
       <c r="K9">
-        <v>1.048968106353969</v>
+        <v>1.038001945491006</v>
       </c>
       <c r="L9">
-        <v>1.050295689857731</v>
+        <v>1.032218196631997</v>
       </c>
       <c r="M9">
-        <v>1.060066328824306</v>
+        <v>1.042991854714427</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.037514574166634</v>
+        <v>0.9952586488297537</v>
       </c>
       <c r="D10">
-        <v>1.044735731347859</v>
+        <v>1.019796706492037</v>
       </c>
       <c r="E10">
-        <v>1.045915110091231</v>
+        <v>1.013436635271581</v>
       </c>
       <c r="F10">
-        <v>1.055676478678548</v>
+        <v>1.024111299761677</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03997550721785</v>
+        <v>1.049309820406454</v>
       </c>
       <c r="J10">
-        <v>1.043836048199366</v>
+        <v>1.023661653466452</v>
       </c>
       <c r="K10">
-        <v>1.04815040581109</v>
+        <v>1.033817493877228</v>
       </c>
       <c r="L10">
-        <v>1.049325653209698</v>
+        <v>1.027567452311024</v>
       </c>
       <c r="M10">
-        <v>1.059053217797845</v>
+        <v>1.038058448771933</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.036884031659322</v>
+        <v>0.9919497436053326</v>
       </c>
       <c r="D11">
-        <v>1.044258896679017</v>
+        <v>1.01734826399126</v>
       </c>
       <c r="E11">
-        <v>1.045373017398822</v>
+        <v>1.010777039957347</v>
       </c>
       <c r="F11">
-        <v>1.055116752421304</v>
+        <v>1.021331737423663</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039842346216686</v>
+        <v>1.048293764381882</v>
       </c>
       <c r="J11">
-        <v>1.043438876721925</v>
+        <v>1.021661300305739</v>
       </c>
       <c r="K11">
-        <v>1.047795650753816</v>
+        <v>1.031950269080951</v>
       </c>
       <c r="L11">
-        <v>1.048905717903949</v>
+        <v>1.025498539231688</v>
       </c>
       <c r="M11">
-        <v>1.058614404270923</v>
+        <v>1.035862277118383</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.036649910269895</v>
+        <v>0.9907065409529189</v>
       </c>
       <c r="D12">
-        <v>1.044081802637775</v>
+        <v>1.016428944468817</v>
       </c>
       <c r="E12">
-        <v>1.045171797138243</v>
+        <v>1.009779159793166</v>
       </c>
       <c r="F12">
-        <v>1.054908947362323</v>
+        <v>1.020288529778684</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.039792596201591</v>
+        <v>1.047909775986308</v>
       </c>
       <c r="J12">
-        <v>1.043291325199106</v>
+        <v>1.020909491743229</v>
       </c>
       <c r="K12">
-        <v>1.047663777107247</v>
+        <v>1.031248018203198</v>
       </c>
       <c r="L12">
-        <v>1.048749750972154</v>
+        <v>1.024721374468286</v>
       </c>
       <c r="M12">
-        <v>1.058451391189444</v>
+        <v>1.035037089419194</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.036700126005447</v>
+        <v>0.9909738637818287</v>
       </c>
       <c r="D13">
-        <v>1.0441197888192</v>
+        <v>1.016626595246186</v>
       </c>
       <c r="E13">
-        <v>1.045214953339195</v>
+        <v>1.009993668603389</v>
       </c>
       <c r="F13">
-        <v>1.054953517603145</v>
+        <v>1.020512796600236</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.039803280774266</v>
+        <v>1.047992444261728</v>
       </c>
       <c r="J13">
-        <v>1.043322976586635</v>
+        <v>1.021071161655358</v>
       </c>
       <c r="K13">
-        <v>1.047692069041521</v>
+        <v>1.03139905238371</v>
       </c>
       <c r="L13">
-        <v>1.048783205677498</v>
+        <v>1.024888478352687</v>
       </c>
       <c r="M13">
-        <v>1.058486358851555</v>
+        <v>1.035214528859722</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.036864677266718</v>
+        <v>0.9918472727068686</v>
       </c>
       <c r="D14">
-        <v>1.044244257540436</v>
+        <v>1.017272476553455</v>
       </c>
       <c r="E14">
-        <v>1.045356381663881</v>
+        <v>1.010694761544799</v>
       </c>
       <c r="F14">
-        <v>1.055099573096479</v>
+        <v>1.021245728016379</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.039838239737861</v>
+        <v>1.048262159337789</v>
       </c>
       <c r="J14">
-        <v>1.04342668055768</v>
+        <v>1.021599337267559</v>
       </c>
       <c r="K14">
-        <v>1.047784752107625</v>
+        <v>1.031892400095714</v>
       </c>
       <c r="L14">
-        <v>1.048892825300891</v>
+        <v>1.025434477983369</v>
       </c>
       <c r="M14">
-        <v>1.05860092992253</v>
+        <v>1.035794261784856</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.036966074709573</v>
+        <v>0.9923835139164081</v>
       </c>
       <c r="D15">
-        <v>1.044320949998159</v>
+        <v>1.017669105108366</v>
       </c>
       <c r="E15">
-        <v>1.045443538534229</v>
+        <v>1.011125389471516</v>
       </c>
       <c r="F15">
-        <v>1.055189576295141</v>
+        <v>1.021695870325444</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039859740955118</v>
+        <v>1.048427460944459</v>
       </c>
       <c r="J15">
-        <v>1.043490572801649</v>
+        <v>1.021923586711367</v>
       </c>
       <c r="K15">
-        <v>1.04784184374511</v>
+        <v>1.0321952062472</v>
       </c>
       <c r="L15">
-        <v>1.048960367689238</v>
+        <v>1.025769724044821</v>
       </c>
       <c r="M15">
-        <v>1.05867151856782</v>
+        <v>1.036150191504343</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C16">
-        <v>1.037556433784521</v>
+        <v>0.9954763100781209</v>
       </c>
       <c r="D16">
-        <v>1.044767380518971</v>
+        <v>1.019957844102513</v>
       </c>
       <c r="E16">
-        <v>1.045951106142974</v>
+        <v>1.013611770536764</v>
       </c>
       <c r="F16">
-        <v>1.055713640111979</v>
+        <v>1.024294290820625</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039984304236276</v>
+        <v>1.049376342390787</v>
       </c>
       <c r="J16">
-        <v>1.043862403689211</v>
+        <v>1.023793200482956</v>
       </c>
       <c r="K16">
-        <v>1.048173935394194</v>
+        <v>1.033940218860602</v>
       </c>
       <c r="L16">
-        <v>1.049353525075809</v>
+        <v>1.027703564716838</v>
       </c>
       <c r="M16">
-        <v>1.059082337783127</v>
+        <v>1.038202902525349</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.037926910004966</v>
+        <v>0.9973919671641547</v>
       </c>
       <c r="D17">
-        <v>1.045047454992076</v>
+        <v>1.021376429518183</v>
       </c>
       <c r="E17">
-        <v>1.046269732613674</v>
+        <v>1.01515414514695</v>
       </c>
       <c r="F17">
-        <v>1.056042551920834</v>
+        <v>1.025905607348345</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040061925362006</v>
+        <v>1.049960066938689</v>
       </c>
       <c r="J17">
-        <v>1.044095598847425</v>
+        <v>1.024950738473112</v>
       </c>
       <c r="K17">
-        <v>1.048382065036125</v>
+        <v>1.035019753718315</v>
       </c>
       <c r="L17">
-        <v>1.049600169104447</v>
+        <v>1.0289015840191</v>
       </c>
       <c r="M17">
-        <v>1.059339999997136</v>
+        <v>1.039474168211282</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C18">
-        <v>1.038143059688851</v>
+        <v>0.9985007870378402</v>
       </c>
       <c r="D18">
-        <v>1.045210831766843</v>
+        <v>1.022197852805343</v>
       </c>
       <c r="E18">
-        <v>1.046455669037769</v>
+        <v>1.016047718021909</v>
       </c>
       <c r="F18">
-        <v>1.056234465130057</v>
+        <v>1.026838919083206</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040107014942993</v>
+        <v>1.050296475150835</v>
       </c>
       <c r="J18">
-        <v>1.044231601248224</v>
+        <v>1.02562055272438</v>
       </c>
       <c r="K18">
-        <v>1.04850339733468</v>
+        <v>1.035644115722405</v>
       </c>
       <c r="L18">
-        <v>1.049744041670713</v>
+        <v>1.029595079359849</v>
       </c>
       <c r="M18">
-        <v>1.059490277399844</v>
+        <v>1.040209919202032</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.038216770811076</v>
+        <v>0.9988774370875318</v>
       </c>
       <c r="D19">
-        <v>1.045266541365896</v>
+        <v>1.022476929982611</v>
       </c>
       <c r="E19">
-        <v>1.046519083263848</v>
+        <v>1.0163513882558</v>
       </c>
       <c r="F19">
-        <v>1.056299913470041</v>
+        <v>1.027156059634288</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040122357838289</v>
+        <v>1.050410498037122</v>
       </c>
       <c r="J19">
-        <v>1.044277971740098</v>
+        <v>1.025848044993942</v>
       </c>
       <c r="K19">
-        <v>1.048544757249544</v>
+        <v>1.035856116727871</v>
       </c>
       <c r="L19">
-        <v>1.049793100035746</v>
+        <v>1.02983065791525</v>
       </c>
       <c r="M19">
-        <v>1.059541515932726</v>
+        <v>1.040459827172534</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.037887155491493</v>
+        <v>0.9971873248426875</v>
       </c>
       <c r="D20">
-        <v>1.045017404185098</v>
+        <v>1.021224853873051</v>
       </c>
       <c r="E20">
-        <v>1.046235537999811</v>
+        <v>1.014989294014624</v>
       </c>
       <c r="F20">
-        <v>1.056007256111972</v>
+        <v>1.025733408588726</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040053616532782</v>
+        <v>1.049897861184308</v>
       </c>
       <c r="J20">
-        <v>1.044070580901474</v>
+        <v>1.024827102625306</v>
       </c>
       <c r="K20">
-        <v>1.048359741534415</v>
+        <v>1.034904481913865</v>
       </c>
       <c r="L20">
-        <v>1.049573705566322</v>
+        <v>1.028773597755134</v>
       </c>
       <c r="M20">
-        <v>1.059312356574716</v>
+        <v>1.03933837184195</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.036816218524036</v>
+        <v>0.991590471686044</v>
       </c>
       <c r="D21">
-        <v>1.044207603941107</v>
+        <v>1.017082556489573</v>
       </c>
       <c r="E21">
-        <v>1.045314730750654</v>
+        <v>1.01048858692658</v>
       </c>
       <c r="F21">
-        <v>1.055056560560341</v>
+        <v>1.021030199132314</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.039827953141543</v>
+        <v>1.048182918454897</v>
       </c>
       <c r="J21">
-        <v>1.043396142986706</v>
+        <v>1.02144404866981</v>
       </c>
       <c r="K21">
-        <v>1.047757462056392</v>
+        <v>1.031747364190422</v>
       </c>
       <c r="L21">
-        <v>1.048860544610152</v>
+        <v>1.025273937599464</v>
       </c>
       <c r="M21">
-        <v>1.05856719208973</v>
+        <v>1.035623808773825</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.036143400175186</v>
+        <v>0.9879893677301983</v>
       </c>
       <c r="D22">
-        <v>1.04369858759383</v>
+        <v>1.014420846412903</v>
       </c>
       <c r="E22">
-        <v>1.044736576650717</v>
+        <v>1.007600761953817</v>
       </c>
       <c r="F22">
-        <v>1.054459412577566</v>
+        <v>1.018010604820813</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039684403152175</v>
+        <v>1.047066476133473</v>
       </c>
       <c r="J22">
-        <v>1.04297195673072</v>
+        <v>1.019265923325787</v>
       </c>
       <c r="K22">
-        <v>1.047378196490866</v>
+        <v>1.029711936292811</v>
       </c>
       <c r="L22">
-        <v>1.048412243647202</v>
+        <v>1.023023135211333</v>
       </c>
       <c r="M22">
-        <v>1.058098572946278</v>
+        <v>1.033233517014567</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.036500024063011</v>
+        <v>0.9899064251146359</v>
       </c>
       <c r="D23">
-        <v>1.043968413280169</v>
+        <v>1.015837455690734</v>
       </c>
       <c r="E23">
-        <v>1.045042991323698</v>
+        <v>1.009137325832038</v>
       </c>
       <c r="F23">
-        <v>1.054775915378547</v>
+        <v>1.019617452789942</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.03976065944711</v>
+        <v>1.047662020853893</v>
       </c>
       <c r="J23">
-        <v>1.043196838843471</v>
+        <v>1.020425570149971</v>
       </c>
       <c r="K23">
-        <v>1.047579307751326</v>
+        <v>1.030795863913792</v>
       </c>
       <c r="L23">
-        <v>1.048649887393461</v>
+        <v>1.024221248176592</v>
       </c>
       <c r="M23">
-        <v>1.058347006308754</v>
+        <v>1.034505998217958</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.03790511866833</v>
+        <v>0.9972798202692607</v>
       </c>
       <c r="D24">
-        <v>1.045030982807922</v>
+        <v>1.021293362934222</v>
       </c>
       <c r="E24">
-        <v>1.046250988805281</v>
+        <v>1.015063801862755</v>
       </c>
       <c r="F24">
-        <v>1.056023204569523</v>
+        <v>1.02581123797564</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040057371508307</v>
+        <v>1.049925981843708</v>
       </c>
       <c r="J24">
-        <v>1.0440818854851</v>
+        <v>1.02488298487208</v>
       </c>
       <c r="K24">
-        <v>1.048369828768587</v>
+        <v>1.034956584670782</v>
       </c>
       <c r="L24">
-        <v>1.049585663271538</v>
+        <v>1.028831445554629</v>
       </c>
       <c r="M24">
-        <v>1.059324847486489</v>
+        <v>1.039399750135657</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.039537891707631</v>
+        <v>1.005503013478931</v>
       </c>
       <c r="D25">
-        <v>1.046264582120025</v>
+        <v>1.027390088401498</v>
       </c>
       <c r="E25">
-        <v>1.047656209838127</v>
+        <v>1.021704576566998</v>
       </c>
       <c r="F25">
-        <v>1.057473139335992</v>
+        <v>1.03274370235217</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040394409659634</v>
+        <v>1.052394249071616</v>
       </c>
       <c r="J25">
-        <v>1.045108286045295</v>
+        <v>1.029846588000663</v>
       </c>
       <c r="K25">
-        <v>1.049284583325093</v>
+        <v>1.039577583551861</v>
       </c>
       <c r="L25">
-        <v>1.050671938740634</v>
+        <v>1.033975047650627</v>
       </c>
       <c r="M25">
-        <v>1.060459078438381</v>
+        <v>1.044854122618539</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_16/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_16/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,46 +412,73 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.011817489373927</v>
+        <v>1.019907894623815</v>
       </c>
       <c r="D2">
-        <v>1.03207858508228</v>
+        <v>1.035501329888871</v>
       </c>
       <c r="E2">
-        <v>1.026826708818056</v>
+        <v>1.032513712035148</v>
       </c>
       <c r="F2">
-        <v>1.038084423467974</v>
+        <v>1.040804426047637</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.054242112447356</v>
+        <v>1.056031046988053</v>
       </c>
       <c r="J2">
-        <v>1.033650396389669</v>
+        <v>1.041509041791572</v>
       </c>
       <c r="K2">
-        <v>1.043108396758821</v>
+        <v>1.0464872758934</v>
       </c>
       <c r="L2">
-        <v>1.037924540215891</v>
+        <v>1.043537926977085</v>
       </c>
       <c r="M2">
-        <v>1.049037503862967</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.051723118901188</v>
+      </c>
+      <c r="N2">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.049507714323074</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.043940802417932</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -459,37 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.016271659368335</v>
+        <v>1.023382917575215</v>
       </c>
       <c r="D3">
-        <v>1.035388553153455</v>
+        <v>1.037811545399768</v>
       </c>
       <c r="E3">
-        <v>1.030451969234583</v>
+        <v>1.035222623046432</v>
       </c>
       <c r="F3">
-        <v>1.041860633772852</v>
+        <v>1.04345279175472</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.055517063820419</v>
+        <v>1.056987502325393</v>
       </c>
       <c r="J3">
-        <v>1.036328361381446</v>
+        <v>1.043255820388441</v>
       </c>
       <c r="K3">
-        <v>1.045587801066666</v>
+        <v>1.047982441775297</v>
       </c>
       <c r="L3">
-        <v>1.040709491490303</v>
+        <v>1.045423818524144</v>
       </c>
       <c r="M3">
-        <v>1.051984515248962</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.053558309753347</v>
+      </c>
+      <c r="N3">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.050960125565776</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.044995353184073</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -497,37 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.019096672802832</v>
+        <v>1.025594471779115</v>
       </c>
       <c r="D4">
-        <v>1.03748875204861</v>
+        <v>1.039285213739956</v>
       </c>
       <c r="E4">
-        <v>1.032756570854307</v>
+        <v>1.036952296235234</v>
       </c>
       <c r="F4">
-        <v>1.044259435919462</v>
+        <v>1.045144982508327</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.056312155453926</v>
+        <v>1.057587505559906</v>
       </c>
       <c r="J4">
-        <v>1.038024184775566</v>
+        <v>1.044365379067636</v>
       </c>
       <c r="K4">
-        <v>1.047154833101388</v>
+        <v>1.048931539364801</v>
       </c>
       <c r="L4">
-        <v>1.042475095719774</v>
+        <v>1.046624292926106</v>
       </c>
       <c r="M4">
-        <v>1.053851495885337</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.054727448148044</v>
+      </c>
+      <c r="N4">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.051885406469641</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.045667325332276</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -535,37 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.020271098632373</v>
+        <v>1.026518578357423</v>
       </c>
       <c r="D5">
-        <v>1.038362011859133</v>
+        <v>1.039903874669131</v>
       </c>
       <c r="E5">
-        <v>1.033715880679743</v>
+        <v>1.037676621167486</v>
       </c>
       <c r="F5">
-        <v>1.045257532528607</v>
+        <v>1.045853395598404</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.056639396947459</v>
+        <v>1.05783755614558</v>
       </c>
       <c r="J5">
-        <v>1.038728508702363</v>
+        <v>1.044829904368975</v>
       </c>
       <c r="K5">
-        <v>1.047804917854819</v>
+        <v>1.049330275405054</v>
       </c>
       <c r="L5">
-        <v>1.043208887506254</v>
+        <v>1.047126883397066</v>
       </c>
       <c r="M5">
-        <v>1.054627086127901</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.055216666116263</v>
+      </c>
+      <c r="N5">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.052272583599523</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.045956374296388</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -573,37 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.020467528449015</v>
+        <v>1.026676882526185</v>
       </c>
       <c r="D6">
-        <v>1.038508077474522</v>
+        <v>1.040012439667587</v>
       </c>
       <c r="E6">
-        <v>1.033876402202464</v>
+        <v>1.037801066295001</v>
       </c>
       <c r="F6">
-        <v>1.045424519191555</v>
+        <v>1.045974521710976</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.056693934808991</v>
+        <v>1.057882037893998</v>
       </c>
       <c r="J6">
-        <v>1.038846270723668</v>
+        <v>1.044911176304079</v>
       </c>
       <c r="K6">
-        <v>1.047913566693021</v>
+        <v>1.049401898589949</v>
       </c>
       <c r="L6">
-        <v>1.043331605039259</v>
+        <v>1.047214108996908</v>
       </c>
       <c r="M6">
-        <v>1.054756774123465</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.055301003789329</v>
+      </c>
+      <c r="N6">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.05233933014291</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.046015691842625</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -611,37 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.01911241684031</v>
+        <v>1.025616633407773</v>
       </c>
       <c r="D7">
-        <v>1.037500458187926</v>
+        <v>1.039306832763144</v>
       </c>
       <c r="E7">
-        <v>1.032769426296115</v>
+        <v>1.036970439432262</v>
       </c>
       <c r="F7">
-        <v>1.044272812813558</v>
+        <v>1.045161103765609</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.05631655545406</v>
+        <v>1.057598249593153</v>
       </c>
       <c r="J7">
-        <v>1.038033629446824</v>
+        <v>1.044381151480515</v>
       </c>
       <c r="K7">
-        <v>1.047163553427866</v>
+        <v>1.048950070955989</v>
       </c>
       <c r="L7">
-        <v>1.042484933623905</v>
+        <v>1.046639377175482</v>
       </c>
       <c r="M7">
-        <v>1.053861895506212</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.054740565928376</v>
+      </c>
+      <c r="N7">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.051895788152537</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.04570038124913</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -649,37 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.013334915577764</v>
+        <v>1.021102265592235</v>
       </c>
       <c r="D8">
-        <v>1.033205990087067</v>
+        <v>1.036302973147553</v>
       </c>
       <c r="E8">
-        <v>1.028060604315298</v>
+        <v>1.033444611240258</v>
       </c>
       <c r="F8">
-        <v>1.039370062788842</v>
+        <v>1.041712227510851</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.054679263157378</v>
+        <v>1.056367339226312</v>
       </c>
       <c r="J8">
-        <v>1.034563247051393</v>
+        <v>1.042115555364317</v>
       </c>
       <c r="K8">
-        <v>1.043954193858043</v>
+        <v>1.04701266513064</v>
       </c>
       <c r="L8">
-        <v>1.038873432401019</v>
+        <v>1.044189837468176</v>
       </c>
       <c r="M8">
-        <v>1.050041896164642</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.052355337060144</v>
+      </c>
+      <c r="N8">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.050008066287227</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.044335027051822</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -687,37 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.002694438702873</v>
+        <v>1.012837071101544</v>
       </c>
       <c r="D9">
-        <v>1.025306526967202</v>
+        <v>1.030821039976218</v>
       </c>
       <c r="E9">
-        <v>1.019432725938854</v>
+        <v>1.027034255533754</v>
       </c>
       <c r="F9">
-        <v>1.030373062058254</v>
+        <v>1.035453831783568</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.05155857915691</v>
+        <v>1.054038946628715</v>
       </c>
       <c r="J9">
-        <v>1.028152406868487</v>
+        <v>1.037944523189936</v>
       </c>
       <c r="K9">
-        <v>1.038001945491006</v>
+        <v>1.043433103584737</v>
       </c>
       <c r="L9">
-        <v>1.032218196631997</v>
+        <v>1.039703435794293</v>
       </c>
       <c r="M9">
-        <v>1.042991854714427</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.047996740592132</v>
+      </c>
+      <c r="N9">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.046558566136557</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.041800923526145</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -725,37 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9952586488297537</v>
+        <v>1.007173704405963</v>
       </c>
       <c r="D10">
-        <v>1.019796706492037</v>
+        <v>1.027094694795593</v>
       </c>
       <c r="E10">
-        <v>1.013436635271581</v>
+        <v>1.022709530237956</v>
       </c>
       <c r="F10">
-        <v>1.024111299761677</v>
+        <v>1.031283948951533</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.049309820406454</v>
+        <v>1.05242104863873</v>
       </c>
       <c r="J10">
-        <v>1.023661653466452</v>
+        <v>1.03510556459053</v>
       </c>
       <c r="K10">
-        <v>1.033817493877228</v>
+        <v>1.040991392016738</v>
       </c>
       <c r="L10">
-        <v>1.027567452311024</v>
+        <v>1.036680515644605</v>
       </c>
       <c r="M10">
-        <v>1.038058448771933</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.045110437021187</v>
+      </c>
+      <c r="N10">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.044325341830663</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.040091205586079</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -763,37 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9919497436053326</v>
+        <v>1.005146161901979</v>
       </c>
       <c r="D11">
-        <v>1.01734826399126</v>
+        <v>1.025825531255764</v>
       </c>
       <c r="E11">
-        <v>1.010777039957347</v>
+        <v>1.021445562135158</v>
       </c>
       <c r="F11">
-        <v>1.021331737423663</v>
+        <v>1.030436997680222</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.048293764381882</v>
+        <v>1.051991139511017</v>
       </c>
       <c r="J11">
-        <v>1.021661300305739</v>
+        <v>1.034306410609732</v>
       </c>
       <c r="K11">
-        <v>1.031950269080951</v>
+        <v>1.040276314059022</v>
       </c>
       <c r="L11">
-        <v>1.025498539231688</v>
+        <v>1.035974070395745</v>
       </c>
       <c r="M11">
-        <v>1.035862277118383</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.044806871634942</v>
+      </c>
+      <c r="N11">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.044518293903325</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.03961825984185</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -801,37 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9907065409529189</v>
+        <v>1.004553526329572</v>
       </c>
       <c r="D12">
-        <v>1.016428944468817</v>
+        <v>1.025474640471153</v>
       </c>
       <c r="E12">
-        <v>1.009779159793166</v>
+        <v>1.021198739370218</v>
       </c>
       <c r="F12">
-        <v>1.020288529778684</v>
+        <v>1.030473066976676</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.047909775986308</v>
+        <v>1.05192986771255</v>
       </c>
       <c r="J12">
-        <v>1.020909491743229</v>
+        <v>1.034166415211668</v>
       </c>
       <c r="K12">
-        <v>1.031248018203198</v>
+        <v>1.040129536368134</v>
       </c>
       <c r="L12">
-        <v>1.024721374468286</v>
+        <v>1.035930770638514</v>
       </c>
       <c r="M12">
-        <v>1.035037089419194</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.045038846223241</v>
+      </c>
+      <c r="N12">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.045026070555744</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.039514484468621</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -839,37 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9909738637818287</v>
+        <v>1.005038939851267</v>
       </c>
       <c r="D13">
-        <v>1.016626595246186</v>
+        <v>1.025823106597523</v>
       </c>
       <c r="E13">
-        <v>1.009993668603389</v>
+        <v>1.021731175565068</v>
       </c>
       <c r="F13">
-        <v>1.020512796600236</v>
+        <v>1.031211759810314</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.047992444261728</v>
+        <v>1.052162470128859</v>
       </c>
       <c r="J13">
-        <v>1.021071161655358</v>
+        <v>1.034539716157686</v>
       </c>
       <c r="K13">
-        <v>1.03139905238371</v>
+        <v>1.040429321678011</v>
       </c>
       <c r="L13">
-        <v>1.024888478352687</v>
+        <v>1.036410878593699</v>
       </c>
       <c r="M13">
-        <v>1.035214528859722</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.04572235231765</v>
+      </c>
+      <c r="N13">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.045841562446065</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.039723962876508</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -877,37 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9918472727068686</v>
+        <v>1.005866935847184</v>
       </c>
       <c r="D14">
-        <v>1.017272476553455</v>
+        <v>1.026384944365439</v>
       </c>
       <c r="E14">
-        <v>1.010694761544799</v>
+        <v>1.022455324510733</v>
       </c>
       <c r="F14">
-        <v>1.021245728016379</v>
+        <v>1.032045304430387</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.048262159337789</v>
+        <v>1.052458202385298</v>
       </c>
       <c r="J14">
-        <v>1.021599337267559</v>
+        <v>1.035032972330258</v>
       </c>
       <c r="K14">
-        <v>1.031892400095714</v>
+        <v>1.040842201784837</v>
       </c>
       <c r="L14">
-        <v>1.025434477983369</v>
+        <v>1.036982267751733</v>
       </c>
       <c r="M14">
-        <v>1.035794261784856</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.046403391452774</v>
+      </c>
+      <c r="N14">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.046552333189051</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.040017294874348</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -915,75 +1122,105 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9923835139164081</v>
+        <v>1.006309250256951</v>
       </c>
       <c r="D15">
-        <v>1.017669105108366</v>
+        <v>1.026681041921485</v>
       </c>
       <c r="E15">
-        <v>1.011125389471516</v>
+        <v>1.022811147171964</v>
       </c>
       <c r="F15">
-        <v>1.021695870325444</v>
+        <v>1.032417551916055</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.048427460944459</v>
+        <v>1.052599434638618</v>
       </c>
       <c r="J15">
-        <v>1.021923586711367</v>
+        <v>1.035272376683013</v>
       </c>
       <c r="K15">
-        <v>1.0321952062472</v>
+        <v>1.04104750941452</v>
       </c>
       <c r="L15">
-        <v>1.025769724044821</v>
+        <v>1.037245717375807</v>
       </c>
       <c r="M15">
-        <v>1.036150191504343</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.046684282787572</v>
+      </c>
+      <c r="N15">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.04681170678916</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.040168285882757</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9954763100781209</v>
+        <v>1.008613586991541</v>
       </c>
       <c r="D16">
-        <v>1.019957844102513</v>
+        <v>1.028193148992157</v>
       </c>
       <c r="E16">
-        <v>1.013611770536764</v>
+        <v>1.024544411203069</v>
       </c>
       <c r="F16">
-        <v>1.024294290820625</v>
+        <v>1.034072512881779</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.049376342390787</v>
+        <v>1.053256765687439</v>
       </c>
       <c r="J16">
-        <v>1.023793200482956</v>
+        <v>1.036413870096271</v>
       </c>
       <c r="K16">
-        <v>1.033940218860602</v>
+        <v>1.04203612572049</v>
       </c>
       <c r="L16">
-        <v>1.027703564716838</v>
+        <v>1.038448792930306</v>
       </c>
       <c r="M16">
-        <v>1.038202902525349</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1.047817718345269</v>
+      </c>
+      <c r="N16">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.047669051714582</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.040870411040657</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,75 +1228,105 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9973919671641547</v>
+        <v>1.009949976218318</v>
       </c>
       <c r="D17">
-        <v>1.021376429518183</v>
+        <v>1.029061347201764</v>
       </c>
       <c r="E17">
-        <v>1.01515414514695</v>
+        <v>1.02549656029268</v>
       </c>
       <c r="F17">
-        <v>1.025905607348345</v>
+        <v>1.034901716108641</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.049960066938689</v>
+        <v>1.053604112996651</v>
       </c>
       <c r="J17">
-        <v>1.024950738473112</v>
+        <v>1.037031089179039</v>
       </c>
       <c r="K17">
-        <v>1.035019753718315</v>
+        <v>1.04257831593608</v>
       </c>
       <c r="L17">
-        <v>1.0289015840191</v>
+        <v>1.039071838424297</v>
       </c>
       <c r="M17">
-        <v>1.039474168211282</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1.048324267240563</v>
+      </c>
+      <c r="N17">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.047941094569372</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.041256326314231</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9985007870378402</v>
+        <v>1.010562840063052</v>
       </c>
       <c r="D18">
-        <v>1.022197852805343</v>
+        <v>1.029437175081434</v>
       </c>
       <c r="E18">
-        <v>1.016047718021909</v>
+        <v>1.025834024529581</v>
       </c>
       <c r="F18">
-        <v>1.026838919083206</v>
+        <v>1.035045299055497</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.050296475150835</v>
+        <v>1.053703659699092</v>
       </c>
       <c r="J18">
-        <v>1.02562055272438</v>
+        <v>1.0372326507501</v>
       </c>
       <c r="K18">
-        <v>1.035644115722405</v>
+        <v>1.042766420028268</v>
       </c>
       <c r="L18">
-        <v>1.029595079359849</v>
+        <v>1.039221246577647</v>
       </c>
       <c r="M18">
-        <v>1.040209919202032</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1.048285333749456</v>
+      </c>
+      <c r="N18">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.047674057601863</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.041377761786728</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9988774370875318</v>
+        <v>1.01052740062379</v>
       </c>
       <c r="D19">
-        <v>1.022476929982611</v>
+        <v>1.02938057244929</v>
       </c>
       <c r="E19">
-        <v>1.0163513882558</v>
+        <v>1.02561568165884</v>
       </c>
       <c r="F19">
-        <v>1.027156059634288</v>
+        <v>1.03456368511877</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.050410498037122</v>
+        <v>1.053587153251023</v>
       </c>
       <c r="J19">
-        <v>1.025848044993942</v>
+        <v>1.037066172540791</v>
       </c>
       <c r="K19">
-        <v>1.035856116727871</v>
+        <v>1.042648792999746</v>
       </c>
       <c r="L19">
-        <v>1.02983065791525</v>
+        <v>1.038944179854525</v>
       </c>
       <c r="M19">
-        <v>1.040459827172534</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1.047749840151192</v>
+      </c>
+      <c r="N19">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.046927330216572</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.04130094897862</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9971873248426875</v>
+        <v>1.008665954269128</v>
       </c>
       <c r="D20">
-        <v>1.021224853873051</v>
+        <v>1.028091712220549</v>
       </c>
       <c r="E20">
-        <v>1.014989294014624</v>
+        <v>1.023850793880614</v>
       </c>
       <c r="F20">
-        <v>1.025733408588726</v>
+        <v>1.032382242127802</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.049897861184308</v>
+        <v>1.052862391747655</v>
       </c>
       <c r="J20">
-        <v>1.024827102625306</v>
+        <v>1.035866857265733</v>
       </c>
       <c r="K20">
-        <v>1.034904481913865</v>
+        <v>1.041657955682855</v>
       </c>
       <c r="L20">
-        <v>1.028773597755134</v>
+        <v>1.037486831616467</v>
       </c>
       <c r="M20">
-        <v>1.03933837184195</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1.045878624078979</v>
+      </c>
+      <c r="N20">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.044922801405437</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.040604292024791</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.991590471686044</v>
+        <v>1.00432732824223</v>
       </c>
       <c r="D21">
-        <v>1.017082556489573</v>
+        <v>1.025230474382129</v>
       </c>
       <c r="E21">
-        <v>1.01048858692658</v>
+        <v>1.020495923300481</v>
       </c>
       <c r="F21">
-        <v>1.021030199132314</v>
+        <v>1.029078020815034</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.048182918454897</v>
+        <v>1.051575878238154</v>
       </c>
       <c r="J21">
-        <v>1.02144404866981</v>
+        <v>1.033645233210325</v>
       </c>
       <c r="K21">
-        <v>1.031747364190422</v>
+        <v>1.039749110790326</v>
       </c>
       <c r="L21">
-        <v>1.025273937599464</v>
+        <v>1.035099127042032</v>
       </c>
       <c r="M21">
-        <v>1.035623808773825</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1.043528676189941</v>
+      </c>
+      <c r="N21">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.043022413613335</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.039257889728658</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9879893677301983</v>
+        <v>1.00156841659737</v>
       </c>
       <c r="D22">
-        <v>1.014420846412903</v>
+        <v>1.023413145843602</v>
       </c>
       <c r="E22">
-        <v>1.007600761953817</v>
+        <v>1.01838641514323</v>
       </c>
       <c r="F22">
-        <v>1.018010604820813</v>
+        <v>1.027026724939547</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.047066476133473</v>
+        <v>1.050754635966554</v>
       </c>
       <c r="J22">
-        <v>1.019265923325787</v>
+        <v>1.032239924158294</v>
       </c>
       <c r="K22">
-        <v>1.029711936292811</v>
+        <v>1.038534627865574</v>
       </c>
       <c r="L22">
-        <v>1.023023135211333</v>
+        <v>1.033602226162853</v>
       </c>
       <c r="M22">
-        <v>1.033233517014567</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1.042081140038879</v>
+      </c>
+      <c r="N22">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.041876788891625</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.038385780588223</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9899064251146359</v>
+        <v>1.00302688229813</v>
       </c>
       <c r="D23">
-        <v>1.015837455690734</v>
+        <v>1.02436752393732</v>
       </c>
       <c r="E23">
-        <v>1.009137325832038</v>
+        <v>1.019499877867612</v>
       </c>
       <c r="F23">
-        <v>1.019617452789942</v>
+        <v>1.028110861411317</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.047662020853893</v>
+        <v>1.051185733277456</v>
       </c>
       <c r="J23">
-        <v>1.020425570149971</v>
+        <v>1.032978924893331</v>
       </c>
       <c r="K23">
-        <v>1.030795863913792</v>
+        <v>1.039169228548917</v>
       </c>
       <c r="L23">
-        <v>1.024221248176592</v>
+        <v>1.034390586172211</v>
       </c>
       <c r="M23">
-        <v>1.034505998217958</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1.04284486506044</v>
+      </c>
+      <c r="N23">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.042481224636302</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.038824886291881</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9972798202692607</v>
+        <v>1.008677170164997</v>
       </c>
       <c r="D24">
-        <v>1.021293362934222</v>
+        <v>1.028084497659371</v>
       </c>
       <c r="E24">
-        <v>1.015063801862755</v>
+        <v>1.023830872602481</v>
       </c>
       <c r="F24">
-        <v>1.02581123797564</v>
+        <v>1.032328411890464</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.049925981843708</v>
+        <v>1.052844385792783</v>
       </c>
       <c r="J24">
-        <v>1.02488298487208</v>
+        <v>1.035845243039502</v>
       </c>
       <c r="K24">
-        <v>1.034956584670782</v>
+        <v>1.041635737373394</v>
       </c>
       <c r="L24">
-        <v>1.028831445554629</v>
+        <v>1.037452028506328</v>
       </c>
       <c r="M24">
-        <v>1.039399750135657</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1.045810632203665</v>
+      </c>
+      <c r="N24">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.044828420269385</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.04056135058232</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.005503013478931</v>
+        <v>1.015025840761984</v>
       </c>
       <c r="D25">
-        <v>1.027390088401498</v>
+        <v>1.032279565094192</v>
       </c>
       <c r="E25">
-        <v>1.021704576566998</v>
+        <v>1.028727643725265</v>
       </c>
       <c r="F25">
-        <v>1.03274370235217</v>
+        <v>1.037103325618371</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.052394249071616</v>
+        <v>1.054670281328438</v>
       </c>
       <c r="J25">
-        <v>1.029846588000663</v>
+        <v>1.039057895000841</v>
       </c>
       <c r="K25">
-        <v>1.039577583551861</v>
+        <v>1.044396627381773</v>
       </c>
       <c r="L25">
-        <v>1.033975047650627</v>
+        <v>1.040895787106253</v>
       </c>
       <c r="M25">
-        <v>1.044854122618539</v>
+        <v>1.049151724510014</v>
+      </c>
+      <c r="N25">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.047472650302565</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.042510573750645</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_16/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_16/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.019907894623815</v>
+        <v>1.018667549391651</v>
       </c>
       <c r="D2">
-        <v>1.035501329888871</v>
+        <v>1.033622822008095</v>
       </c>
       <c r="E2">
-        <v>1.032513712035148</v>
+        <v>1.031519810414888</v>
       </c>
       <c r="F2">
-        <v>1.040804426047637</v>
+        <v>1.039978042716086</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.056031046988053</v>
+        <v>1.055014276759364</v>
       </c>
       <c r="J2">
-        <v>1.041509041791572</v>
+        <v>1.040303901008777</v>
       </c>
       <c r="K2">
-        <v>1.0464872758934</v>
+        <v>1.044632797884714</v>
       </c>
       <c r="L2">
-        <v>1.043537926977085</v>
+        <v>1.042556817881804</v>
       </c>
       <c r="M2">
-        <v>1.051723118901188</v>
+        <v>1.050907159354583</v>
       </c>
       <c r="N2">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.049507714323074</v>
+        <v>1.048861944709779</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.043940802417932</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.042638257942799</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.023878204078341</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.023382917575215</v>
+        <v>1.022042791061637</v>
       </c>
       <c r="D3">
-        <v>1.037811545399768</v>
+        <v>1.035781912242721</v>
       </c>
       <c r="E3">
-        <v>1.035222623046432</v>
+        <v>1.034145138985954</v>
       </c>
       <c r="F3">
-        <v>1.04345279175472</v>
+        <v>1.04255897389931</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.056987502325393</v>
+        <v>1.055887681964481</v>
       </c>
       <c r="J3">
-        <v>1.043255820388441</v>
+        <v>1.04195006650064</v>
       </c>
       <c r="K3">
-        <v>1.047982441775297</v>
+        <v>1.04597654628375</v>
       </c>
       <c r="L3">
-        <v>1.045423818524144</v>
+        <v>1.044358999996367</v>
       </c>
       <c r="M3">
-        <v>1.053558309753347</v>
+        <v>1.052674792398301</v>
       </c>
       <c r="N3">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.050960125565776</v>
+        <v>1.050260890447585</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.044995353184073</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.043585470006319</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.024139291764256</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.025594471779115</v>
+        <v>1.024191347888396</v>
       </c>
       <c r="D4">
-        <v>1.039285213739956</v>
+        <v>1.037159752223905</v>
       </c>
       <c r="E4">
-        <v>1.036952296235234</v>
+        <v>1.035822022401547</v>
       </c>
       <c r="F4">
-        <v>1.045144982508327</v>
+        <v>1.04420856533721</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.057587505559906</v>
+        <v>1.056434941110804</v>
       </c>
       <c r="J4">
-        <v>1.044365379067636</v>
+        <v>1.042995846291432</v>
       </c>
       <c r="K4">
-        <v>1.048931539364801</v>
+        <v>1.046829460351667</v>
       </c>
       <c r="L4">
-        <v>1.046624292926106</v>
+        <v>1.045506507572122</v>
       </c>
       <c r="M4">
-        <v>1.054727448148044</v>
+        <v>1.053801177059332</v>
       </c>
       <c r="N4">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.051885406469641</v>
+        <v>1.051152335992957</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.045667325332276</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.044189517081226</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.024302710271908</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.026518578357423</v>
+        <v>1.025089235688176</v>
       </c>
       <c r="D5">
-        <v>1.039903874669131</v>
+        <v>1.037738494626336</v>
       </c>
       <c r="E5">
-        <v>1.037676621167486</v>
+        <v>1.036524363395509</v>
       </c>
       <c r="F5">
-        <v>1.045853395598404</v>
+        <v>1.044899240284306</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.05783755614558</v>
+        <v>1.056662990712895</v>
       </c>
       <c r="J5">
-        <v>1.044829904368975</v>
+        <v>1.043433773642691</v>
       </c>
       <c r="K5">
-        <v>1.049330275405054</v>
+        <v>1.047188092284973</v>
       </c>
       <c r="L5">
-        <v>1.047126883397066</v>
+        <v>1.045987019573343</v>
       </c>
       <c r="M5">
-        <v>1.055216666116263</v>
+        <v>1.054272576117524</v>
       </c>
       <c r="N5">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.052272583599523</v>
+        <v>1.051525411239963</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.045956374296388</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.044450923326105</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.024371385229115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.026676882526185</v>
+        <v>1.025243042935466</v>
       </c>
       <c r="D6">
-        <v>1.040012439667587</v>
+        <v>1.037840277385258</v>
       </c>
       <c r="E6">
-        <v>1.037801066295001</v>
+        <v>1.036645024554524</v>
       </c>
       <c r="F6">
-        <v>1.045974521710976</v>
+        <v>1.045017318863992</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.057882037893998</v>
+        <v>1.056703720930917</v>
       </c>
       <c r="J6">
-        <v>1.044911176304079</v>
+        <v>1.043510484412751</v>
       </c>
       <c r="K6">
-        <v>1.049401898589949</v>
+        <v>1.047252900838173</v>
       </c>
       <c r="L6">
-        <v>1.047214108996908</v>
+        <v>1.046070445232537</v>
       </c>
       <c r="M6">
-        <v>1.055301003789329</v>
+        <v>1.054353852576196</v>
       </c>
       <c r="N6">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.05233933014291</v>
+        <v>1.05158973514033</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.046015691842625</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.044506294051144</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.024384394516678</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.025616633407773</v>
+        <v>1.024212835455844</v>
       </c>
       <c r="D7">
-        <v>1.039306832763144</v>
+        <v>1.037180542724339</v>
       </c>
       <c r="E7">
-        <v>1.036970439432262</v>
+        <v>1.035839562940994</v>
       </c>
       <c r="F7">
-        <v>1.045161103765609</v>
+        <v>1.044224216623498</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.057598249593153</v>
+        <v>1.05644519345166</v>
       </c>
       <c r="J7">
-        <v>1.044381151480515</v>
+        <v>1.043010946643965</v>
       </c>
       <c r="K7">
-        <v>1.048950070955989</v>
+        <v>1.046847163578831</v>
       </c>
       <c r="L7">
-        <v>1.046639377175482</v>
+        <v>1.045520991134893</v>
       </c>
       <c r="M7">
-        <v>1.054740565928376</v>
+        <v>1.053813826210664</v>
       </c>
       <c r="N7">
-        <v>1.005712725503983</v>
+        <v>1.009672849942804</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.051895788152537</v>
+        <v>1.051162346802946</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.04570038124913</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.044223992523487</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.024307803161199</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.021102265592235</v>
+        <v>1.01982740525322</v>
       </c>
       <c r="D8">
-        <v>1.036302973147553</v>
+        <v>1.034372568119377</v>
       </c>
       <c r="E8">
-        <v>1.033444611240258</v>
+        <v>1.032421748966128</v>
       </c>
       <c r="F8">
-        <v>1.041712227510851</v>
+        <v>1.040862503064412</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.056367339226312</v>
+        <v>1.055322014070748</v>
       </c>
       <c r="J8">
-        <v>1.042115555364317</v>
+        <v>1.040875683740395</v>
       </c>
       <c r="K8">
-        <v>1.04701266513064</v>
+        <v>1.045106231461238</v>
       </c>
       <c r="L8">
-        <v>1.044189837468176</v>
+        <v>1.043179750675762</v>
       </c>
       <c r="M8">
-        <v>1.052355337060144</v>
+        <v>1.051516014877008</v>
       </c>
       <c r="N8">
-        <v>1.005712725503983</v>
+        <v>1.009744168770165</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.050008066287227</v>
+        <v>1.049343807371003</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.044335027051822</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.042998021534912</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.023972756970377</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.012837071101544</v>
+        <v>1.01180280296364</v>
       </c>
       <c r="D9">
-        <v>1.030821039976218</v>
+        <v>1.02925208917628</v>
       </c>
       <c r="E9">
-        <v>1.027034255533754</v>
+        <v>1.026212752764957</v>
       </c>
       <c r="F9">
-        <v>1.035453831783568</v>
+        <v>1.0347665299165</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.054038946628715</v>
+        <v>1.053191824201991</v>
       </c>
       <c r="J9">
-        <v>1.037944523189936</v>
+        <v>1.036945549341328</v>
       </c>
       <c r="K9">
-        <v>1.043433103584737</v>
+        <v>1.041887752577903</v>
       </c>
       <c r="L9">
-        <v>1.039703435794293</v>
+        <v>1.038894394790179</v>
       </c>
       <c r="M9">
-        <v>1.047996740592132</v>
+        <v>1.047319648509517</v>
       </c>
       <c r="N9">
-        <v>1.005712725503983</v>
+        <v>1.009756663622889</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.046558566136557</v>
+        <v>1.046022697410816</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.041800923526145</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.040718939498384</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.023332583965802</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.007173704405963</v>
+        <v>1.006305428839375</v>
       </c>
       <c r="D10">
-        <v>1.027094694795593</v>
+        <v>1.025773456239089</v>
       </c>
       <c r="E10">
-        <v>1.022709530237956</v>
+        <v>1.022026305257251</v>
       </c>
       <c r="F10">
-        <v>1.031283948951533</v>
+        <v>1.030708459316263</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.05242104863873</v>
+        <v>1.051709199586002</v>
       </c>
       <c r="J10">
-        <v>1.03510556459053</v>
+        <v>1.034271089868742</v>
       </c>
       <c r="K10">
-        <v>1.040991392016738</v>
+        <v>1.039692450032107</v>
       </c>
       <c r="L10">
-        <v>1.036680515644605</v>
+        <v>1.036008939180404</v>
       </c>
       <c r="M10">
-        <v>1.045110437021187</v>
+        <v>1.04454454864482</v>
       </c>
       <c r="N10">
-        <v>1.005712725503983</v>
+        <v>1.009913726784964</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.044325341830663</v>
+        <v>1.043877508888135</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.040091205586079</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.039185129003206</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.022889330627954</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.005146161901979</v>
+        <v>1.004319391662481</v>
       </c>
       <c r="D11">
-        <v>1.025825531255764</v>
+        <v>1.024575558653569</v>
       </c>
       <c r="E11">
-        <v>1.021445562135158</v>
+        <v>1.020794152844912</v>
       </c>
       <c r="F11">
-        <v>1.030436997680222</v>
+        <v>1.029889328097211</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.051991139511017</v>
+        <v>1.051317235969754</v>
       </c>
       <c r="J11">
-        <v>1.034306410609732</v>
+        <v>1.033513576385503</v>
       </c>
       <c r="K11">
-        <v>1.040276314059022</v>
+        <v>1.039048435151511</v>
       </c>
       <c r="L11">
-        <v>1.035974070395745</v>
+        <v>1.035334294783404</v>
       </c>
       <c r="M11">
-        <v>1.044806871634942</v>
+        <v>1.044268761888063</v>
       </c>
       <c r="N11">
-        <v>1.005712725503983</v>
+        <v>1.010219287442624</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.044518293903325</v>
+        <v>1.044092655736766</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.03961825984185</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.038765656144656</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.022795356667411</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.004553526329572</v>
+        <v>1.003730536241516</v>
       </c>
       <c r="D12">
-        <v>1.025474640471153</v>
+        <v>1.024237400742363</v>
       </c>
       <c r="E12">
-        <v>1.021198739370218</v>
+        <v>1.020548380358539</v>
       </c>
       <c r="F12">
-        <v>1.030473066976676</v>
+        <v>1.029927869842202</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.05192986771255</v>
+        <v>1.051262288062316</v>
       </c>
       <c r="J12">
-        <v>1.034166415211668</v>
+        <v>1.03337784794754</v>
       </c>
       <c r="K12">
-        <v>1.040129536368134</v>
+        <v>1.038914529844614</v>
       </c>
       <c r="L12">
-        <v>1.035930770638514</v>
+        <v>1.035292217495599</v>
       </c>
       <c r="M12">
-        <v>1.045038846223241</v>
+        <v>1.044503314845501</v>
       </c>
       <c r="N12">
-        <v>1.005712725503983</v>
+        <v>1.01035478389643</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.045026070555744</v>
+        <v>1.044602613440564</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.039514484468621</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.038670983618129</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.022794480245381</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.005038939851267</v>
+        <v>1.004190262914551</v>
       </c>
       <c r="D13">
-        <v>1.025823106597523</v>
+        <v>1.024553645665714</v>
       </c>
       <c r="E13">
-        <v>1.021731175565068</v>
+        <v>1.021057762222492</v>
       </c>
       <c r="F13">
-        <v>1.031211759810314</v>
+        <v>1.030649314157636</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.052162470128859</v>
+        <v>1.051476873457278</v>
       </c>
       <c r="J13">
-        <v>1.034539716157686</v>
+        <v>1.033726359418438</v>
       </c>
       <c r="K13">
-        <v>1.040429321678011</v>
+        <v>1.039182577708353</v>
       </c>
       <c r="L13">
-        <v>1.036410878593699</v>
+        <v>1.035749632633306</v>
       </c>
       <c r="M13">
-        <v>1.04572235231765</v>
+        <v>1.045169826756432</v>
       </c>
       <c r="N13">
-        <v>1.005712725503983</v>
+        <v>1.010324862518226</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.045841562446065</v>
+        <v>1.045404776214389</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.039723962876508</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.038857775798196</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.022872074503079</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.005866935847184</v>
+        <v>1.004987212639584</v>
       </c>
       <c r="D14">
-        <v>1.026384944365439</v>
+        <v>1.025072787657134</v>
       </c>
       <c r="E14">
-        <v>1.022455324510733</v>
+        <v>1.021755137785121</v>
       </c>
       <c r="F14">
-        <v>1.032045304430387</v>
+        <v>1.031462064643786</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.052458202385298</v>
+        <v>1.051749100340129</v>
       </c>
       <c r="J14">
-        <v>1.035032972330258</v>
+        <v>1.034189339312372</v>
       </c>
       <c r="K14">
-        <v>1.040842201784837</v>
+        <v>1.039553237105002</v>
       </c>
       <c r="L14">
-        <v>1.036982267751733</v>
+        <v>1.036294570823153</v>
       </c>
       <c r="M14">
-        <v>1.046403391452774</v>
+        <v>1.045830304995322</v>
       </c>
       <c r="N14">
-        <v>1.005712725503983</v>
+        <v>1.010230087706879</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.046552333189051</v>
+        <v>1.046099353627238</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.040017294874348</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.039121391116732</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.022962148695425</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.006309250256951</v>
+        <v>1.005415185168737</v>
       </c>
       <c r="D15">
-        <v>1.026681041921485</v>
+        <v>1.025348240726369</v>
       </c>
       <c r="E15">
-        <v>1.022811147171964</v>
+        <v>1.022098869226115</v>
       </c>
       <c r="F15">
-        <v>1.032417551916055</v>
+        <v>1.03182471246613</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.052599434638618</v>
+        <v>1.051879036514928</v>
       </c>
       <c r="J15">
-        <v>1.035272376683013</v>
+        <v>1.034414671819723</v>
       </c>
       <c r="K15">
-        <v>1.04104750941452</v>
+        <v>1.039738087743267</v>
       </c>
       <c r="L15">
-        <v>1.037245717375807</v>
+        <v>1.036546047051321</v>
       </c>
       <c r="M15">
-        <v>1.046684282787572</v>
+        <v>1.046101684147476</v>
       </c>
       <c r="N15">
-        <v>1.005712725503983</v>
+        <v>1.010174360971594</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.04681170678916</v>
+        <v>1.046351220628485</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.040168285882757</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.039258489752671</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.023003400547247</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.008613586991541</v>
+        <v>1.007653983826773</v>
       </c>
       <c r="D16">
-        <v>1.028193148992157</v>
+        <v>1.026761204999949</v>
       </c>
       <c r="E16">
-        <v>1.024544411203069</v>
+        <v>1.023778229135238</v>
       </c>
       <c r="F16">
-        <v>1.034072512881779</v>
+        <v>1.03343581212855</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.053256765687439</v>
+        <v>1.052482464927841</v>
       </c>
       <c r="J16">
-        <v>1.036413870096271</v>
+        <v>1.035491358355553</v>
       </c>
       <c r="K16">
-        <v>1.04203612572049</v>
+        <v>1.040628212977306</v>
       </c>
       <c r="L16">
-        <v>1.038448792930306</v>
+        <v>1.037695576784163</v>
       </c>
       <c r="M16">
-        <v>1.047817718345269</v>
+        <v>1.047191536518252</v>
       </c>
       <c r="N16">
-        <v>1.005712725503983</v>
+        <v>1.009896956512875</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.047669051714582</v>
+        <v>1.04717410335553</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.040870411040657</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.039891278335361</v>
+      </c>
+      <c r="S16">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="T16">
+        <v>1.02318279989254</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.009949976218318</v>
+        <v>1.008956287181686</v>
       </c>
       <c r="D17">
-        <v>1.029061347201764</v>
+        <v>1.027575689364453</v>
       </c>
       <c r="E17">
-        <v>1.02549656029268</v>
+        <v>1.024702899138659</v>
       </c>
       <c r="F17">
-        <v>1.034901716108641</v>
+        <v>1.034242149038303</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.053604112996651</v>
+        <v>1.052800714648099</v>
       </c>
       <c r="J17">
-        <v>1.037031089179039</v>
+        <v>1.036074586612633</v>
       </c>
       <c r="K17">
-        <v>1.04257831593608</v>
+        <v>1.04111689588108</v>
       </c>
       <c r="L17">
-        <v>1.039071838424297</v>
+        <v>1.038291230253582</v>
       </c>
       <c r="M17">
-        <v>1.048324267240563</v>
+        <v>1.047675294457882</v>
       </c>
       <c r="N17">
-        <v>1.005712725503983</v>
+        <v>1.009769981040597</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.047941094569372</v>
+        <v>1.047428081068436</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.041256326314231</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.040239610150573</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.023272605063884</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.010562840063052</v>
+        <v>1.009560110711115</v>
       </c>
       <c r="D18">
-        <v>1.029437175081434</v>
+        <v>1.027933296629037</v>
       </c>
       <c r="E18">
-        <v>1.025834024529581</v>
+        <v>1.02503416912433</v>
       </c>
       <c r="F18">
-        <v>1.035045299055497</v>
+        <v>1.034379597889965</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.053703659699092</v>
+        <v>1.052890664520771</v>
       </c>
       <c r="J18">
-        <v>1.0372326507501</v>
+        <v>1.03626675098172</v>
       </c>
       <c r="K18">
-        <v>1.042766420028268</v>
+        <v>1.041286676587434</v>
       </c>
       <c r="L18">
-        <v>1.039221246577647</v>
+        <v>1.038434332360412</v>
       </c>
       <c r="M18">
-        <v>1.048285333749456</v>
+        <v>1.047630157315758</v>
       </c>
       <c r="N18">
-        <v>1.005712725503983</v>
+        <v>1.009714664310362</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.047674057601863</v>
+        <v>1.04715603335616</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.041377761786728</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.040346950808428</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.023287839119587</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.01052740062379</v>
+        <v>1.009538075486987</v>
       </c>
       <c r="D19">
-        <v>1.02938057244929</v>
+        <v>1.027890580039492</v>
       </c>
       <c r="E19">
-        <v>1.02561568165884</v>
+        <v>1.024828661426913</v>
       </c>
       <c r="F19">
-        <v>1.03456368511877</v>
+        <v>1.033906857777093</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.053587153251023</v>
+        <v>1.052782185059087</v>
       </c>
       <c r="J19">
-        <v>1.037066172540791</v>
+        <v>1.036112975634176</v>
       </c>
       <c r="K19">
-        <v>1.042648792999746</v>
+        <v>1.041182588367945</v>
       </c>
       <c r="L19">
-        <v>1.038944179854525</v>
+        <v>1.03816983199828</v>
       </c>
       <c r="M19">
-        <v>1.047749840151192</v>
+        <v>1.04710335424802</v>
       </c>
       <c r="N19">
-        <v>1.005712725503983</v>
+        <v>1.009699109624638</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.046927330216572</v>
+        <v>1.046416012393273</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.04130094897862</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.040280337157214</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.023241102523293</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.008665954269128</v>
+        <v>1.007753053142654</v>
       </c>
       <c r="D20">
-        <v>1.028091712220549</v>
+        <v>1.026704935782565</v>
       </c>
       <c r="E20">
-        <v>1.023850793880614</v>
+        <v>1.02313026955686</v>
       </c>
       <c r="F20">
-        <v>1.032382242127802</v>
+        <v>1.031776661856693</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.052862391747655</v>
+        <v>1.052114634349305</v>
       </c>
       <c r="J20">
-        <v>1.035866857265733</v>
+        <v>1.034988344732175</v>
       </c>
       <c r="K20">
-        <v>1.041657955682855</v>
+        <v>1.040293920315786</v>
       </c>
       <c r="L20">
-        <v>1.037486831616467</v>
+        <v>1.036778239238517</v>
       </c>
       <c r="M20">
-        <v>1.045878624078979</v>
+        <v>1.045282859079528</v>
       </c>
       <c r="N20">
-        <v>1.005712725503983</v>
+        <v>1.009781698284326</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.044922801405437</v>
+        <v>1.044451319109866</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.040604292024791</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.039656308895317</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.02301590779534</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.00432732824223</v>
+        <v>1.003546451446486</v>
       </c>
       <c r="D21">
-        <v>1.025230474382129</v>
+        <v>1.024037652303748</v>
       </c>
       <c r="E21">
-        <v>1.020495923300481</v>
+        <v>1.019885694797164</v>
       </c>
       <c r="F21">
-        <v>1.029078020815034</v>
+        <v>1.028561256961658</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.051575878238154</v>
+        <v>1.050934051907105</v>
       </c>
       <c r="J21">
-        <v>1.033645233210325</v>
+        <v>1.032896641685437</v>
       </c>
       <c r="K21">
-        <v>1.039749110790326</v>
+        <v>1.038577498943812</v>
       </c>
       <c r="L21">
-        <v>1.035099127042032</v>
+        <v>1.034499872517435</v>
       </c>
       <c r="M21">
-        <v>1.043528676189941</v>
+        <v>1.043021004538431</v>
       </c>
       <c r="N21">
-        <v>1.005712725503983</v>
+        <v>1.010338911748788</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.043022413613335</v>
+        <v>1.042620626828153</v>
       </c>
       <c r="Q21">
-        <v>1.02</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="R21">
-        <v>1.039257889728658</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.038446288333681</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.022657303040814</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.00156841659737</v>
+        <v>1.000871589433107</v>
       </c>
       <c r="D22">
-        <v>1.023413145843602</v>
+        <v>1.022343186142855</v>
       </c>
       <c r="E22">
-        <v>1.01838641514323</v>
+        <v>1.017846199825512</v>
       </c>
       <c r="F22">
-        <v>1.027026724939547</v>
+        <v>1.026566453008933</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.050754635966554</v>
+        <v>1.050179838701745</v>
       </c>
       <c r="J22">
-        <v>1.032239924158294</v>
+        <v>1.031573575029525</v>
       </c>
       <c r="K22">
-        <v>1.038534627865574</v>
+        <v>1.037484645037159</v>
       </c>
       <c r="L22">
-        <v>1.033602226162853</v>
+        <v>1.033072220710765</v>
       </c>
       <c r="M22">
-        <v>1.042081140038879</v>
+        <v>1.041629376406173</v>
       </c>
       <c r="N22">
-        <v>1.005712725503983</v>
+        <v>1.01067819198903</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.041876788891625</v>
+        <v>1.041519248859163</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.038385780588223</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.037658870311438</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.022427213015635</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.00302688229813</v>
+        <v>1.002285759240405</v>
       </c>
       <c r="D23">
-        <v>1.02436752393732</v>
+        <v>1.023232588919656</v>
       </c>
       <c r="E23">
-        <v>1.019499877867612</v>
+        <v>1.018922836405761</v>
       </c>
       <c r="F23">
-        <v>1.028110861411317</v>
+        <v>1.027620849350465</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.051185733277456</v>
+        <v>1.050575556688601</v>
       </c>
       <c r="J23">
-        <v>1.032978924893331</v>
+        <v>1.032269271638946</v>
       </c>
       <c r="K23">
-        <v>1.039169228548917</v>
+        <v>1.038054947010924</v>
       </c>
       <c r="L23">
-        <v>1.034390586172211</v>
+        <v>1.033824169239486</v>
       </c>
       <c r="M23">
-        <v>1.04284486506044</v>
+        <v>1.042363678753503</v>
       </c>
       <c r="N23">
-        <v>1.005712725503983</v>
+        <v>1.010446637671561</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.042481224636302</v>
+        <v>1.042100398880032</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.038824886291881</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.038051566480977</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.022546117977058</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.008677170164997</v>
+        <v>1.007765966756104</v>
       </c>
       <c r="D24">
-        <v>1.028084497659371</v>
+        <v>1.026698941143387</v>
       </c>
       <c r="E24">
-        <v>1.023830872602481</v>
+        <v>1.023112076112218</v>
       </c>
       <c r="F24">
-        <v>1.032328411890464</v>
+        <v>1.031724001423686</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.052844385792783</v>
+        <v>1.052097454157592</v>
       </c>
       <c r="J24">
-        <v>1.035845243039502</v>
+        <v>1.034968315016056</v>
       </c>
       <c r="K24">
-        <v>1.041635737373394</v>
+        <v>1.040272873234116</v>
       </c>
       <c r="L24">
-        <v>1.037452028506328</v>
+        <v>1.036745120674926</v>
       </c>
       <c r="M24">
-        <v>1.045810632203665</v>
+        <v>1.045216006830047</v>
       </c>
       <c r="N24">
-        <v>1.005712725503983</v>
+        <v>1.009776345404437</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.044828420269385</v>
+        <v>1.044357816807182</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.04056135058232</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.039611512768242</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.02300581640455</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.015025840761984</v>
+        <v>1.013927055147225</v>
       </c>
       <c r="D25">
-        <v>1.032279565094192</v>
+        <v>1.030614593151814</v>
       </c>
       <c r="E25">
-        <v>1.028727643725265</v>
+        <v>1.027852109167817</v>
       </c>
       <c r="F25">
-        <v>1.037103325618371</v>
+        <v>1.036372473223371</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.054670281328438</v>
+        <v>1.053770502734751</v>
       </c>
       <c r="J25">
-        <v>1.039057895000841</v>
+        <v>1.037994639838834</v>
       </c>
       <c r="K25">
-        <v>1.044396627381773</v>
+        <v>1.042755544305104</v>
       </c>
       <c r="L25">
-        <v>1.040895787106253</v>
+        <v>1.040032912578168</v>
       </c>
       <c r="M25">
-        <v>1.049151724510014</v>
+        <v>1.04843122341723</v>
       </c>
       <c r="N25">
-        <v>1.005712725503983</v>
+        <v>1.009712335287388</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.047472650302565</v>
+        <v>1.046902427222515</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.042510573750645</v>
+        <v>1.041363716581864</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.0235098440904</v>
       </c>
     </row>
   </sheetData>
